--- a/Project 4 Apache Common Configuration/Correlation Analysis/Correlation12&3.xlsx
+++ b/Project 4 Apache Common Configuration/Correlation Analysis/Correlation12&3.xlsx
@@ -5,11 +5,10 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,1218 +20,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="585">
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Line Coverage</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="194">
+  <si>
+    <t xml:space="preserve">CLASS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LINE_MISSED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LINE_COVERED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Line Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRANCH_MISSED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRANCH_COVERED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Branch Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPLEXITY_MISSED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPLEXITY_COVERED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complexity Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statement Coverage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Branch Coverage</t>
   </si>
   <si>
     <t xml:space="preserve">Mutation Coverage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AbstractConfiguration.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96%357/373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96%207/215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AbstractHierarchicalConfiguration.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97%169/174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97%87/90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AbstractYAMLBasedConfiguration.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94%48/51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81%13/16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BaseConfiguration.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95%35/37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%12/12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BaseConfigurationXMLReader.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%20/20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90%9/10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BaseHierarchicalConfiguration.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96%225/235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93%97/104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CombinedConfiguration.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96%250/260</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95%123/129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CompositeConfiguration.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95%162/171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86%69/80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConfigurationConverter.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92%24/26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%8/8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConfigurationLookup.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%7/7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%3/3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConfigurationMap.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92%34/37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConfigurationUtils.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88%98/111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89%50/56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConfigurationXMLReader.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78%43/55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70%16/23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DataConfiguration.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98%142/145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89%110/123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DatabaseConfiguration.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92%157/170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74%51/69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DynamicCombinedConfiguration.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62%147/236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47%71/150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FindNodeVisitor.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%10/10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HierarchicalConfigurationConverter.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98%45/46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89%17/19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HierarchicalConfigurationXMLReader.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%33/33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%15/15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INIConfiguration.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98%255/261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82%130/158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ImmutableConfigurationInvocationHandler.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%17/17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JNDIConfiguration.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94%106/113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85%45/53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JSONConfiguration.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64%14/22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40%2/5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MapConfiguration.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93%38/41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94%17/18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PatternSubtreeConfigurationWrapper.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23%21/90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8%6/74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PrefixedKeysIterator.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90%19/21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%13/13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PropertiesConfiguration.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96%306/318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94%153/162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PropertiesConfigurationLayout.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97%199/206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95%126/132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StrictConfigurationComparator.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%19/19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SubnodeConfiguration.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%26/26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SubsetConfiguration.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95%55/58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95%36/38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SystemConfiguration.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91%21/23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88%7/8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XMLConfiguration.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96%339/352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88%146/165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XMLDocumentHelper.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%58/58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%23/23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XMLListReference.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%38/38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85%17/20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XMLPropertiesConfiguration.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87%101/116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74%37/50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YAMLConfiguration.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41%16/39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27%3/11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BeanHelper.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83%118/143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90%47/52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CombinedBeanDeclaration.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%41/41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%27/27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConfigurationDynaBean.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90%62/69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89%31/35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConfigurationDynaClass.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89%42/47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConstructorArg.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%18/18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DefaultBeanFactory.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%66/66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%28/28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XMLBeanDeclaration.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88%91/104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89%41/46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AutoSaveListener.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%22/22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%14/14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BasicBuilderParameters.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98%109/111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96%51/53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BasicConfigurationBuilder.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99%141/143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93%64/69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BuilderConfigurationWrapperFactory.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%32/32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConfigurationBuilderEvent.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%6/6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%1/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConfigurationBuilderResultCreatedEvent.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%2/2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CopyObjectDefaultHandler.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%4/4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DatabaseBuilderParametersImpl.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DefaultParametersManager.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%37/37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DefaultReloadingDetectorFactory.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67%2/3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EventListenerParameters.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%9/9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FileBasedBuilderParametersImpl.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%65/65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%36/36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FileBasedConfigurationBuilder.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%84/84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92%36/39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HierarchicalBuilderParametersImpl.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INIBuilderParametersImpl.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58%7/12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30%3/10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INIBuilderProperties.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0%0/2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JndiBuilderParametersImpl.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%5/5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PropertiesBuilderParametersImpl.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ReloadingBuilderSupportListener.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ReloadingFileBasedConfigurationBuilder.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%35/35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XMLBuilderParametersImpl.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BaseConfigurationBuilderProvider.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97%61/63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CombinedBuilderParametersImpl.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99%68/69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97%33/34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CombinedConfigurationBuilder.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98%326/332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90%108/120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CombinedConfigurationBuilderProvider.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80%4/5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConfigurationDeclaration.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92%23/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88%15/17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FileExtensionConfigurationBuilderProvider.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96%22/23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93%14/15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MultiFileBuilderParametersImpl.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MultiFileConfigurationBuilder.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99%110/111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98%43/44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MultiFileConfigurationBuilderProvider.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MultiWrapDynaBean.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MultiWrapDynaClass.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94%16/17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75%3/4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ReloadingCombinedConfigurationBuilder.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92%11/12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ReloadingMultiFileConfigurationBuilder.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Configurations.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%42/42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameters.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AbstractListDelimiterHandler.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96%27/28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96%25/26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DefaultConversionHandler.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%69/69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%47/47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DefaultListDelimiterHandler.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%44/44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DisabledListDelimiterHandler.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LegacyListDelimiterHandler.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97%66/68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87%34/39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ListDelimiterHandler.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PropertyConverter.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88%211/239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92%166/180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BaseEventSource.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98%58/59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConfigurationErrorEvent.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConfigurationEvent.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Event.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%16/16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EventListenerList.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%82/82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EventListenerRegistrationData.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80%16/20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71%10/14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EventType.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConfigurationInterpolator.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%85/85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%52/52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConstantLookup.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85%11/13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DefaultLookups.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DummyLookup.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EnvironmentLookup.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0%0/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ExprLookup.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72%58/81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66%19/29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InterpolatorSpecification.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%53/53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StringLookupAdapter.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SystemPropertiesLookup.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AbsoluteNameLocationStrategy.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BasePathLocationStrategy.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ClasspathLocationStrategy.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CombinedLocationStrategy.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConfigurationLogger.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%31/31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DefaultFileSystem.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76%71/94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63%31/49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FileHandler.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95%305/320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96%133/139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FileLocator.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%62/62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96%23/24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FileLocatorUtils.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97%112/116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94%66/70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FileSystem.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78%7/9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FileSystemLocationStrategy.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FileUtils.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89%24/27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HomeDirectoryLocationStrategy.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%24/24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProvidedURLLocationStrategy.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VFSFileSystem.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21%29/137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17%11/66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ParseException.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48%32/66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19%5/26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PropertyListConfiguration.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87%167/191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70%82/117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PropertyListParser.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68%213/314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49%108/220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PropertyListParserTokenManager.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63%257/410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33%112/342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SimpleCharStream.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36%70/194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17%26/151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Token.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25%1/4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TokenMgrError.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0%0/37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0%0/12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XMLPropertyListConfiguration.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84%216/256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82%112/136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CombinedReloadingController.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%30/30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FileHandlerReloadingDetector.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95%39/41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88%23/26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ManagedReloadingDetector.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PeriodicReloadingTrigger.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ReloadingController.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ReloadingEvent.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VFSFileHandlerReloadingDetector.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87%27/31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CatalogResolver.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81%110/136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43%28/65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DefaultEntityResolver.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40%8/20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38%3/8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConfigurationPropertiesFactoryBean.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86%30/35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75%15/20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConfigurationPropertySource.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33%1/3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ReadWriteSynchronizer.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AbstractImmutableNodeHandler.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%21/21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConfigurationNodeVisitorAdapter.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DefaultConfigurationKey.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97%202/208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87%139/160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DefaultExpressionEngine.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%73/73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98%41/42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DefaultExpressionEngineSymbols.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%70/70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95%19/20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ImmutableNode.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%129/129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96%64/67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InMemoryNodeModel.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%349/349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97%146/150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MergeCombiner.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94%15/16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ModelTransaction.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%231/231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97%91/94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NodeAddData.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NodeCombiner.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50%2/4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NodeHandlerDecorator.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NodeNameMatchers.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NodeSelector.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87%13/15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NodeTracker.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99%97/98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95%42/44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NodeTreeWalker.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NodeUpdateData.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OverrideCombiner.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%29/29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QueryResult.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ReferenceTracker.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TrackedNodeHandler.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TrackedNodeModel.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84%16/19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TreeData.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97%35/36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TreeUtils.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92%22/24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0%0/11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UnionCombiner.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%25/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConfigurationAttributePointer.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConfigurationNodeIteratorAttribute.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConfigurationNodeIteratorBase.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97%28/29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConfigurationNodeIteratorChildren.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%50/50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConfigurationNodePointer.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83%20/24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConfigurationNodePointerFactory.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74%14/19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60%6/10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XPathContextFactory.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XPathExpressionEngine.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99%121/122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87%62/71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AppletConfiguration.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BaseWebConfiguration.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ServletConfiguration.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ServletContextConfiguration.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ServletFilterConfiguration.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ServletRequestConfiguration.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLASS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LINE_MISSED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LINE_COVERED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Line Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRANCH_MISSED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRANCH_COVERED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Branch Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMPLEXITY_MISSED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMPLEXITY_COVERED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complexity Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Statement Coverage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Branch Coverage</t>
   </si>
   <si>
     <t xml:space="preserve">Pearson</t>
@@ -1785,7 +611,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1806,20 +632,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1893,28 +705,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1990,7 +790,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2030,10 +830,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0693426270880904"/>
-          <c:y val="0.106304079110012"/>
-          <c:w val="0.90770340103353"/>
-          <c:h val="0.801071281417388"/>
+          <c:x val="0.0694019554915722"/>
+          <c:y val="0.106330365974283"/>
+          <c:w val="0.907504048947274"/>
+          <c:h val="0.800774810418727"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -2072,6 +872,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2080,6 +881,20 @@
             <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="111111"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$L$2:$L$178</c:f>
@@ -3162,11 +1977,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="25098913"/>
-        <c:axId val="21959552"/>
+        <c:axId val="63974037"/>
+        <c:axId val="41464262"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="25098913"/>
+        <c:axId val="63974037"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3201,7 +2016,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3223,12 +2038,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21959552"/>
+        <c:crossAx val="41464262"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="21959552"/>
+        <c:axId val="41464262"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3263,7 +2078,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3285,7 +2100,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25098913"/>
+        <c:crossAx val="63974037"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3305,14 +2120,14 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3352,10 +2167,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0693426270880904"/>
-          <c:y val="0.106304079110012"/>
-          <c:w val="0.90770340103353"/>
-          <c:h val="0.801071281417388"/>
+          <c:x val="0.0694019554915722"/>
+          <c:y val="0.106330365974283"/>
+          <c:w val="0.907504048947274"/>
+          <c:h val="0.800774810418727"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3394,6 +2209,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3402,6 +2218,20 @@
             <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="111111"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$M$2:$M$178</c:f>
@@ -4367,11 +3197,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="68143166"/>
-        <c:axId val="91689470"/>
+        <c:axId val="42065643"/>
+        <c:axId val="15705415"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68143166"/>
+        <c:axId val="42065643"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4406,7 +3236,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4428,12 +3258,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91689470"/>
+        <c:crossAx val="15705415"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="91689470"/>
+        <c:axId val="15705415"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4468,7 +3298,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4490,7 +3320,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68143166"/>
+        <c:crossAx val="42065643"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4510,7 +3340,7 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
@@ -4528,9 +3358,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>699480</xdr:colOff>
+      <xdr:colOff>698400</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>133200</xdr:rowOff>
+      <xdr:rowOff>132120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4538,8 +3368,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="17264880" y="1416960"/>
-        <a:ext cx="5990760" cy="4368240"/>
+        <a:off x="17268120" y="1416960"/>
+        <a:ext cx="6001200" cy="4367160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4558,9 +3388,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>759600</xdr:colOff>
+      <xdr:colOff>758520</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>48600</xdr:rowOff>
+      <xdr:rowOff>47520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4568,8 +3398,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="17325000" y="6046560"/>
-        <a:ext cx="5990760" cy="4368240"/>
+        <a:off x="17328240" y="6046560"/>
+        <a:ext cx="6001200" cy="4367160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4587,1998 +3417,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:P178"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K9" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.57"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="C164" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C174" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C176" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C178" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:P178"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O35" activeCellId="0" sqref="O35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.33"/>
@@ -6599,46 +3444,46 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>392</v>
+        <v>0</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>393</v>
+        <v>1</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>394</v>
+        <v>2</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>395</v>
+        <v>3</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>396</v>
+        <v>4</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>397</v>
+        <v>5</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>398</v>
+        <v>6</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>399</v>
+        <v>7</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>400</v>
+        <v>8</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>401</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>404</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6646,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>405</v>
+        <v>14</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -6684,8 +3529,8 @@
       <c r="N2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>406</v>
+      <c r="O2" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="P2" s="0" t="n">
         <f aca="false">PEARSON(L2:L178,N2:N178)</f>
@@ -6697,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>407</v>
+        <v>16</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>11</v>
@@ -6735,8 +3580,8 @@
       <c r="N3" s="0" t="n">
         <v>0.96</v>
       </c>
-      <c r="O3" s="5" t="s">
-        <v>408</v>
+      <c r="O3" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="P3" s="0" t="n">
         <f aca="false">PEARSON(M2:M178,N2:N178)</f>
@@ -6748,7 +3593,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>409</v>
+        <v>18</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>2</v>
@@ -6792,7 +3637,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>410</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -6836,7 +3681,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>411</v>
+        <v>20</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -6880,7 +3725,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>412</v>
+        <v>21</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>3</v>
@@ -6924,7 +3769,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>413</v>
+        <v>22</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>9</v>
@@ -6968,7 +3813,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>414</v>
+        <v>23</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -7012,7 +3857,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>415</v>
+        <v>24</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>2</v>
@@ -7056,7 +3901,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>416</v>
+        <v>25</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>2</v>
@@ -7100,7 +3945,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>417</v>
+        <v>26</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -7133,7 +3978,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>418</v>
+        <v>27</v>
       </c>
       <c r="N12" s="0" t="n">
         <v>0.9</v>
@@ -7144,7 +3989,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>419</v>
+        <v>28</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -7188,7 +4033,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>420</v>
+        <v>29</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1</v>
@@ -7232,7 +4077,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>421</v>
+        <v>30</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -7276,7 +4121,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>422</v>
+        <v>31</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -7320,7 +4165,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>423</v>
+        <v>32</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>2</v>
@@ -7364,7 +4209,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>424</v>
+        <v>33</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1</v>
@@ -7408,7 +4253,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>425</v>
+        <v>34</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>24</v>
@@ -7452,7 +4297,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>426</v>
+        <v>35</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -7496,7 +4341,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>427</v>
+        <v>36</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>7</v>
@@ -7540,7 +4385,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>428</v>
+        <v>37</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>0</v>
@@ -7584,7 +4429,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>429</v>
+        <v>38</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>0</v>
@@ -7628,7 +4473,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>430</v>
+        <v>39</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1</v>
@@ -7672,7 +4517,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>431</v>
+        <v>40</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>0</v>
@@ -7716,7 +4561,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>432</v>
+        <v>41</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>4</v>
@@ -7760,7 +4605,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>433</v>
+        <v>42</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>0</v>
@@ -7804,7 +4649,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>434</v>
+        <v>43</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>0</v>
@@ -7848,7 +4693,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>435</v>
+        <v>44</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>0</v>
@@ -7892,7 +4737,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>436</v>
+        <v>45</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>7</v>
@@ -7936,7 +4781,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>437</v>
+        <v>46</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>1</v>
@@ -7980,7 +4825,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>438</v>
+        <v>47</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>0</v>
@@ -8013,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>418</v>
+        <v>27</v>
       </c>
       <c r="N32" s="0" t="n">
         <v>1</v>
@@ -8024,7 +4869,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>439</v>
+        <v>48</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>0</v>
@@ -8068,7 +4913,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>440</v>
+        <v>49</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>0</v>
@@ -8112,7 +4957,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>441</v>
+        <v>50</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>2</v>
@@ -8156,7 +5001,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>442</v>
+        <v>51</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>7</v>
@@ -8200,7 +5045,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>443</v>
+        <v>52</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>5</v>
@@ -8244,7 +5089,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>444</v>
+        <v>53</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>0</v>
@@ -8277,7 +5122,7 @@
         <v>1</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>418</v>
+        <v>27</v>
       </c>
       <c r="N38" s="0" t="n">
         <v>1</v>
@@ -8288,7 +5133,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>445</v>
+        <v>54</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>0</v>
@@ -8321,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>418</v>
+        <v>27</v>
       </c>
       <c r="N39" s="0" t="n">
         <v>1</v>
@@ -8332,7 +5177,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>446</v>
+        <v>55</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>0</v>
@@ -8376,7 +5221,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>447</v>
+        <v>56</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>0</v>
@@ -8420,7 +5265,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>448</v>
+        <v>57</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>0</v>
@@ -8464,7 +5309,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>449</v>
+        <v>58</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>0</v>
@@ -8497,7 +5342,7 @@
         <v>1</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>418</v>
+        <v>27</v>
       </c>
       <c r="N43" s="0" t="n">
         <v>0.81</v>
@@ -8508,7 +5353,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>450</v>
+        <v>59</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>0</v>
@@ -8552,7 +5397,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>451</v>
+        <v>60</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>0</v>
@@ -8596,7 +5441,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>452</v>
+        <v>61</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>0</v>
@@ -8640,7 +5485,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>453</v>
+        <v>62</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>2</v>
@@ -8684,7 +5529,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>454</v>
+        <v>63</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>5</v>
@@ -8728,7 +5573,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>455</v>
+        <v>64</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>1</v>
@@ -8761,7 +5606,7 @@
         <v>0.75</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>418</v>
+        <v>27</v>
       </c>
       <c r="N49" s="0" t="n">
         <v>1</v>
@@ -8772,7 +5617,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>456</v>
+        <v>65</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>5</v>
@@ -8816,7 +5661,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>457</v>
+        <v>66</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>7</v>
@@ -8860,7 +5705,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>458</v>
+        <v>67</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>0</v>
@@ -8904,7 +5749,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>459</v>
+        <v>68</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>11</v>
@@ -8948,7 +5793,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>460</v>
+        <v>69</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>14</v>
@@ -8992,7 +5837,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>461</v>
+        <v>70</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>0</v>
@@ -9036,7 +5881,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>462</v>
+        <v>71</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>0</v>
@@ -9080,7 +5925,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>463</v>
+        <v>72</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>0</v>
@@ -9124,7 +5969,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>464</v>
+        <v>73</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>0</v>
@@ -9157,7 +6002,7 @@
         <v>1</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>418</v>
+        <v>27</v>
       </c>
       <c r="N58" s="0" t="n">
         <v>1</v>
@@ -9168,7 +6013,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>465</v>
+        <v>74</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>12</v>
@@ -9212,7 +6057,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>466</v>
+        <v>75</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>3</v>
@@ -9256,7 +6101,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>467</v>
+        <v>76</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>0</v>
@@ -9300,7 +6145,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>468</v>
+        <v>77</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>1</v>
@@ -9344,7 +6189,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>469</v>
+        <v>78</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>0</v>
@@ -9388,7 +6233,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>470</v>
+        <v>79</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>12</v>
@@ -9432,7 +6277,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>471</v>
+        <v>80</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>0</v>
@@ -9476,7 +6321,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>472</v>
+        <v>81</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>0</v>
@@ -9520,7 +6365,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>473</v>
+        <v>82</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>18</v>
@@ -9564,7 +6409,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>474</v>
+        <v>83</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>0</v>
@@ -9608,7 +6453,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>475</v>
+        <v>84</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>0</v>
@@ -9641,7 +6486,7 @@
         <v>1</v>
       </c>
       <c r="M69" s="0" t="s">
-        <v>418</v>
+        <v>27</v>
       </c>
       <c r="N69" s="0" t="n">
         <v>1</v>
@@ -9652,7 +6497,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>476</v>
+        <v>85</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>0</v>
@@ -9696,7 +6541,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>477</v>
+        <v>86</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>0</v>
@@ -9740,7 +6585,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>478</v>
+        <v>87</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>0</v>
@@ -9773,7 +6618,7 @@
         <v>1</v>
       </c>
       <c r="M72" s="0" t="s">
-        <v>418</v>
+        <v>27</v>
       </c>
       <c r="N72" s="0" t="n">
         <v>1</v>
@@ -9784,7 +6629,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>479</v>
+        <v>88</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>0</v>
@@ -9817,7 +6662,7 @@
         <v>1</v>
       </c>
       <c r="M73" s="0" t="s">
-        <v>418</v>
+        <v>27</v>
       </c>
       <c r="N73" s="0" t="n">
         <v>1</v>
@@ -9828,7 +6673,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>480</v>
+        <v>89</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>83</v>
@@ -9872,7 +6717,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>481</v>
+        <v>90</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>2</v>
@@ -9905,7 +6750,7 @@
         <v>0</v>
       </c>
       <c r="M75" s="0" t="s">
-        <v>418</v>
+        <v>27</v>
       </c>
       <c r="N75" s="0" t="n">
         <v>0</v>
@@ -9916,7 +6761,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>482</v>
+        <v>91</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>0</v>
@@ -9960,7 +6805,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>483</v>
+        <v>92</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>0</v>
@@ -10004,7 +6849,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>484</v>
+        <v>93</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>0</v>
@@ -10037,7 +6882,7 @@
         <v>1</v>
       </c>
       <c r="M78" s="0" t="s">
-        <v>418</v>
+        <v>27</v>
       </c>
       <c r="N78" s="0" t="n">
         <v>1</v>
@@ -10048,7 +6893,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>485</v>
+        <v>94</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>4</v>
@@ -10092,7 +6937,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>486</v>
+        <v>95</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>0</v>
@@ -10136,7 +6981,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>487</v>
+        <v>96</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>17</v>
@@ -10180,7 +7025,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>488</v>
+        <v>97</v>
       </c>
       <c r="C82" s="0" t="n">
         <v>0</v>
@@ -10224,7 +7069,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>489</v>
+        <v>98</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>0</v>
@@ -10268,7 +7113,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>490</v>
+        <v>99</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>1</v>
@@ -10312,7 +7157,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>491</v>
+        <v>100</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>13</v>
@@ -10356,7 +7201,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>492</v>
+        <v>101</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>2</v>
@@ -10400,7 +7245,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>493</v>
+        <v>102</v>
       </c>
       <c r="C87" s="0" t="n">
         <v>0</v>
@@ -10444,7 +7289,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>494</v>
+        <v>103</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>2</v>
@@ -10488,7 +7333,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>495</v>
+        <v>104</v>
       </c>
       <c r="C89" s="0" t="n">
         <v>2</v>
@@ -10532,7 +7377,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>496</v>
+        <v>105</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>0</v>
@@ -10565,7 +7410,7 @@
         <v>1</v>
       </c>
       <c r="M90" s="0" t="s">
-        <v>418</v>
+        <v>27</v>
       </c>
       <c r="N90" s="0" t="n">
         <v>1</v>
@@ -10576,7 +7421,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>497</v>
+        <v>106</v>
       </c>
       <c r="C91" s="0" t="n">
         <v>2</v>
@@ -10620,7 +7465,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>498</v>
+        <v>107</v>
       </c>
       <c r="C92" s="0" t="n">
         <v>0</v>
@@ -10664,7 +7509,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>499</v>
+        <v>108</v>
       </c>
       <c r="C93" s="0" t="n">
         <v>0</v>
@@ -10697,7 +7542,7 @@
         <v>1</v>
       </c>
       <c r="M93" s="0" t="s">
-        <v>418</v>
+        <v>27</v>
       </c>
       <c r="N93" s="0" t="n">
         <v>1</v>
@@ -10708,7 +7553,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>500</v>
+        <v>109</v>
       </c>
       <c r="C94" s="0" t="n">
         <v>1</v>
@@ -10752,7 +7597,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>501</v>
+        <v>110</v>
       </c>
       <c r="C95" s="0" t="n">
         <v>0</v>
@@ -10785,7 +7630,7 @@
         <v>1</v>
       </c>
       <c r="M95" s="0" t="s">
-        <v>418</v>
+        <v>27</v>
       </c>
       <c r="N95" s="0" t="n">
         <v>1</v>
@@ -10796,7 +7641,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>502</v>
+        <v>111</v>
       </c>
       <c r="C96" s="0" t="n">
         <v>0</v>
@@ -10840,7 +7685,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>503</v>
+        <v>112</v>
       </c>
       <c r="C97" s="0" t="n">
         <v>0</v>
@@ -10884,7 +7729,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>504</v>
+        <v>113</v>
       </c>
       <c r="C98" s="0" t="n">
         <v>0</v>
@@ -10928,7 +7773,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>505</v>
+        <v>114</v>
       </c>
       <c r="C99" s="0" t="n">
         <v>5</v>
@@ -10961,7 +7806,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="M99" s="0" t="s">
-        <v>418</v>
+        <v>27</v>
       </c>
       <c r="N99" s="0" t="n">
         <v>0.3</v>
@@ -10972,7 +7817,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>506</v>
+        <v>115</v>
       </c>
       <c r="C100" s="0" t="n">
         <v>2</v>
@@ -11005,7 +7850,7 @@
         <v>0</v>
       </c>
       <c r="M100" s="0" t="s">
-        <v>418</v>
+        <v>27</v>
       </c>
       <c r="N100" s="0" t="n">
         <v>0</v>
@@ -11016,7 +7861,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>507</v>
+        <v>116</v>
       </c>
       <c r="C101" s="0" t="n">
         <v>3</v>
@@ -11060,7 +7905,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>508</v>
+        <v>117</v>
       </c>
       <c r="C102" s="0" t="n">
         <v>0</v>
@@ -11104,7 +7949,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>509</v>
+        <v>118</v>
       </c>
       <c r="C103" s="0" t="n">
         <v>0</v>
@@ -11137,7 +7982,7 @@
         <v>1</v>
       </c>
       <c r="M103" s="0" t="s">
-        <v>418</v>
+        <v>27</v>
       </c>
       <c r="N103" s="0" t="n">
         <v>1</v>
@@ -11148,7 +7993,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>510</v>
+        <v>119</v>
       </c>
       <c r="C104" s="0" t="n">
         <v>0</v>
@@ -11181,7 +8026,7 @@
         <v>1</v>
       </c>
       <c r="M104" s="0" t="s">
-        <v>418</v>
+        <v>27</v>
       </c>
       <c r="N104" s="0" t="n">
         <v>1</v>
@@ -11192,7 +8037,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>511</v>
+        <v>120</v>
       </c>
       <c r="C105" s="0" t="n">
         <v>5</v>
@@ -11236,7 +8081,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>512</v>
+        <v>121</v>
       </c>
       <c r="C106" s="0" t="n">
         <v>8</v>
@@ -11269,7 +8114,7 @@
         <v>0.636363636363636</v>
       </c>
       <c r="M106" s="0" t="s">
-        <v>418</v>
+        <v>27</v>
       </c>
       <c r="N106" s="0" t="n">
         <v>0.4</v>
@@ -11280,7 +8125,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>513</v>
+        <v>122</v>
       </c>
       <c r="C107" s="0" t="n">
         <v>2</v>
@@ -11324,7 +8169,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>514</v>
+        <v>123</v>
       </c>
       <c r="C108" s="0" t="n">
         <v>0</v>
@@ -11357,7 +8202,7 @@
         <v>1</v>
       </c>
       <c r="M108" s="0" t="s">
-        <v>418</v>
+        <v>27</v>
       </c>
       <c r="N108" s="0" t="n">
         <v>1</v>
@@ -11368,7 +8213,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>515</v>
+        <v>124</v>
       </c>
       <c r="C109" s="0" t="n">
         <v>0</v>
@@ -11401,7 +8246,7 @@
         <v>1</v>
       </c>
       <c r="M109" s="0" t="s">
-        <v>418</v>
+        <v>27</v>
       </c>
       <c r="N109" s="0" t="n">
         <v>1</v>
@@ -11412,7 +8257,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>516</v>
+        <v>125</v>
       </c>
       <c r="C110" s="0" t="n">
         <v>3</v>
@@ -11456,7 +8301,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>517</v>
+        <v>126</v>
       </c>
       <c r="C111" s="0" t="n">
         <v>0</v>
@@ -11500,7 +8345,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>518</v>
+        <v>127</v>
       </c>
       <c r="C112" s="0" t="n">
         <v>0</v>
@@ -11544,7 +8389,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>519</v>
+        <v>128</v>
       </c>
       <c r="C113" s="0" t="n">
         <v>0</v>
@@ -11588,7 +8433,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>520</v>
+        <v>129</v>
       </c>
       <c r="C114" s="0" t="n">
         <v>1</v>
@@ -11632,7 +8477,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>521</v>
+        <v>130</v>
       </c>
       <c r="C115" s="0" t="n">
         <v>0</v>
@@ -11676,7 +8521,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>522</v>
+        <v>131</v>
       </c>
       <c r="C116" s="0" t="n">
         <v>0</v>
@@ -11720,7 +8565,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>523</v>
+        <v>132</v>
       </c>
       <c r="C117" s="0" t="n">
         <v>1</v>
@@ -11764,7 +8609,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>524</v>
+        <v>133</v>
       </c>
       <c r="C118" s="0" t="n">
         <v>0</v>
@@ -11808,7 +8653,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>525</v>
+        <v>134</v>
       </c>
       <c r="C119" s="0" t="n">
         <v>0</v>
@@ -11841,7 +8686,7 @@
         <v>1</v>
       </c>
       <c r="M119" s="0" t="s">
-        <v>418</v>
+        <v>27</v>
       </c>
       <c r="N119" s="0" t="n">
         <v>0.5</v>
@@ -11852,7 +8697,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>526</v>
+        <v>135</v>
       </c>
       <c r="C120" s="0" t="n">
         <v>0</v>
@@ -11885,7 +8730,7 @@
         <v>1</v>
       </c>
       <c r="M120" s="0" t="s">
-        <v>418</v>
+        <v>27</v>
       </c>
       <c r="N120" s="0" t="n">
         <v>1</v>
@@ -11896,7 +8741,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>527</v>
+        <v>136</v>
       </c>
       <c r="C121" s="0" t="n">
         <v>0</v>
@@ -11929,7 +8774,7 @@
         <v>1</v>
       </c>
       <c r="M121" s="0" t="s">
-        <v>418</v>
+        <v>27</v>
       </c>
       <c r="N121" s="0" t="n">
         <v>1</v>
@@ -11940,7 +8785,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>528</v>
+        <v>137</v>
       </c>
       <c r="C122" s="0" t="n">
         <v>0</v>
@@ -11984,7 +8829,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>529</v>
+        <v>138</v>
       </c>
       <c r="C123" s="0" t="n">
         <v>1</v>
@@ -12028,7 +8873,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>530</v>
+        <v>139</v>
       </c>
       <c r="C124" s="0" t="n">
         <v>0</v>
@@ -12072,7 +8917,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>531</v>
+        <v>140</v>
       </c>
       <c r="C125" s="0" t="n">
         <v>1</v>
@@ -12116,7 +8961,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>532</v>
+        <v>141</v>
       </c>
       <c r="C126" s="0" t="n">
         <v>0</v>
@@ -12160,7 +9005,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>533</v>
+        <v>142</v>
       </c>
       <c r="C127" s="0" t="n">
         <v>0</v>
@@ -12204,7 +9049,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>534</v>
+        <v>143</v>
       </c>
       <c r="C128" s="0" t="n">
         <v>34</v>
@@ -12248,7 +9093,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>535</v>
+        <v>144</v>
       </c>
       <c r="C129" s="0" t="n">
         <v>73</v>
@@ -12292,7 +9137,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>536</v>
+        <v>145</v>
       </c>
       <c r="C130" s="0" t="n">
         <v>0</v>
@@ -12336,7 +9181,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>537</v>
+        <v>146</v>
       </c>
       <c r="C131" s="0" t="n">
         <v>2</v>
@@ -12380,7 +9225,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>538</v>
+        <v>147</v>
       </c>
       <c r="C132" s="0" t="n">
         <v>0</v>
@@ -12413,7 +9258,7 @@
         <v>1</v>
       </c>
       <c r="M132" s="0" t="s">
-        <v>418</v>
+        <v>27</v>
       </c>
       <c r="N132" s="0" t="n">
         <v>1</v>
@@ -12424,7 +9269,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>539</v>
+        <v>148</v>
       </c>
       <c r="C133" s="0" t="n">
         <v>10</v>
@@ -12468,7 +9313,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>540</v>
+        <v>149</v>
       </c>
       <c r="C134" s="0" t="n">
         <v>5</v>
@@ -12512,7 +9357,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>541</v>
+        <v>150</v>
       </c>
       <c r="C135" s="0" t="n">
         <v>26</v>
@@ -12556,7 +9401,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>542</v>
+        <v>151</v>
       </c>
       <c r="C136" s="0" t="n">
         <v>24</v>
@@ -12600,7 +9445,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>543</v>
+        <v>152</v>
       </c>
       <c r="C137" s="0" t="n">
         <v>102</v>
@@ -12644,7 +9489,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>544</v>
+        <v>153</v>
       </c>
       <c r="C138" s="0" t="n">
         <v>153</v>
@@ -12688,7 +9533,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>545</v>
+        <v>154</v>
       </c>
       <c r="C139" s="0" t="n">
         <v>0</v>
@@ -12721,7 +9566,7 @@
         <v>1</v>
       </c>
       <c r="M139" s="0" t="s">
-        <v>418</v>
+        <v>27</v>
       </c>
       <c r="N139" s="0" t="n">
         <v>1</v>
@@ -12732,7 +9577,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>546</v>
+        <v>155</v>
       </c>
       <c r="C140" s="0" t="n">
         <v>0</v>
@@ -12776,7 +9621,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>547</v>
+        <v>156</v>
       </c>
       <c r="C141" s="0" t="n">
         <v>0</v>
@@ -12820,7 +9665,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>548</v>
+        <v>157</v>
       </c>
       <c r="C142" s="0" t="n">
         <v>2</v>
@@ -12864,7 +9709,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>549</v>
+        <v>158</v>
       </c>
       <c r="C143" s="0" t="n">
         <v>0</v>
@@ -12908,7 +9753,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>550</v>
+        <v>159</v>
       </c>
       <c r="C144" s="0" t="n">
         <v>0</v>
@@ -12952,7 +9797,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>551</v>
+        <v>160</v>
       </c>
       <c r="C145" s="0" t="n">
         <v>0</v>
@@ -12996,7 +9841,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>552</v>
+        <v>161</v>
       </c>
       <c r="C146" s="0" t="n">
         <v>0</v>
@@ -13029,7 +9874,7 @@
         <v>1</v>
       </c>
       <c r="M146" s="0" t="s">
-        <v>418</v>
+        <v>27</v>
       </c>
       <c r="N146" s="0" t="n">
         <v>1</v>
@@ -13040,7 +9885,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>553</v>
+        <v>162</v>
       </c>
       <c r="C147" s="0" t="n">
         <v>0</v>
@@ -13084,7 +9929,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>554</v>
+        <v>163</v>
       </c>
       <c r="C148" s="0" t="n">
         <v>0</v>
@@ -13117,7 +9962,7 @@
         <v>1</v>
       </c>
       <c r="M148" s="0" t="s">
-        <v>418</v>
+        <v>27</v>
       </c>
       <c r="N148" s="0" t="n">
         <v>1</v>
@@ -13128,7 +9973,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>555</v>
+        <v>164</v>
       </c>
       <c r="C149" s="0" t="n">
         <v>0</v>
@@ -13161,7 +10006,7 @@
         <v>1</v>
       </c>
       <c r="M149" s="0" t="s">
-        <v>418</v>
+        <v>27</v>
       </c>
       <c r="N149" s="0" t="n">
         <v>1</v>
@@ -13172,7 +10017,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>556</v>
+        <v>165</v>
       </c>
       <c r="C150" s="0" t="n">
         <v>0</v>
@@ -13205,7 +10050,7 @@
         <v>1</v>
       </c>
       <c r="M150" s="0" t="s">
-        <v>418</v>
+        <v>27</v>
       </c>
       <c r="N150" s="0" t="n">
         <v>1</v>
@@ -13216,7 +10061,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>557</v>
+        <v>166</v>
       </c>
       <c r="C151" s="0" t="n">
         <v>0</v>
@@ -13249,7 +10094,7 @@
         <v>1</v>
       </c>
       <c r="M151" s="0" t="s">
-        <v>418</v>
+        <v>27</v>
       </c>
       <c r="N151" s="0" t="n">
         <v>1</v>
@@ -13260,7 +10105,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>558</v>
+        <v>167</v>
       </c>
       <c r="C152" s="0" t="n">
         <v>1</v>
@@ -13304,7 +10149,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>559</v>
+        <v>168</v>
       </c>
       <c r="C153" s="0" t="n">
         <v>124</v>
@@ -13348,7 +10193,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>560</v>
+        <v>169</v>
       </c>
       <c r="C154" s="0" t="n">
         <v>0</v>
@@ -13392,7 +10237,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>561</v>
+        <v>170</v>
       </c>
       <c r="C155" s="0" t="n">
         <v>0</v>
@@ -13425,7 +10270,7 @@
         <v>1</v>
       </c>
       <c r="M155" s="0" t="s">
-        <v>418</v>
+        <v>27</v>
       </c>
       <c r="N155" s="0" t="n">
         <v>1</v>
@@ -13436,7 +10281,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>562</v>
+        <v>171</v>
       </c>
       <c r="C156" s="0" t="n">
         <v>0</v>
@@ -13480,7 +10325,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>563</v>
+        <v>172</v>
       </c>
       <c r="C157" s="0" t="n">
         <v>3</v>
@@ -13524,7 +10369,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>564</v>
+        <v>173</v>
       </c>
       <c r="C158" s="0" t="n">
         <v>2</v>
@@ -13568,7 +10413,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>565</v>
+        <v>174</v>
       </c>
       <c r="C159" s="0" t="n">
         <v>2</v>
@@ -13601,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="M159" s="0" t="s">
-        <v>418</v>
+        <v>27</v>
       </c>
       <c r="N159" s="0" t="n">
         <v>0</v>
@@ -13612,7 +10457,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>566</v>
+        <v>175</v>
       </c>
       <c r="C160" s="0" t="n">
         <v>5</v>
@@ -13645,7 +10490,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="M160" s="0" t="s">
-        <v>418</v>
+        <v>27</v>
       </c>
       <c r="N160" s="0" t="n">
         <v>0.25</v>
@@ -13656,7 +10501,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>567</v>
+        <v>176</v>
       </c>
       <c r="C161" s="0" t="n">
         <v>37</v>
@@ -13700,7 +10545,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>568</v>
+        <v>177</v>
       </c>
       <c r="C162" s="0" t="n">
         <v>0</v>
@@ -13733,7 +10578,7 @@
         <v>1</v>
       </c>
       <c r="M162" s="0" t="s">
-        <v>418</v>
+        <v>27</v>
       </c>
       <c r="N162" s="0" t="n">
         <v>1</v>
@@ -13744,7 +10589,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>569</v>
+        <v>178</v>
       </c>
       <c r="C163" s="0" t="n">
         <v>0</v>
@@ -13788,7 +10633,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>570</v>
+        <v>179</v>
       </c>
       <c r="C164" s="0" t="n">
         <v>1</v>
@@ -13832,7 +10677,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>571</v>
+        <v>180</v>
       </c>
       <c r="C165" s="0" t="n">
         <v>0</v>
@@ -13876,7 +10721,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>572</v>
+        <v>181</v>
       </c>
       <c r="C166" s="0" t="n">
         <v>0</v>
@@ -13920,7 +10765,7 @@
         <v>165</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>573</v>
+        <v>182</v>
       </c>
       <c r="C167" s="0" t="n">
         <v>4</v>
@@ -13964,7 +10809,7 @@
         <v>166</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>574</v>
+        <v>183</v>
       </c>
       <c r="C168" s="0" t="n">
         <v>108</v>
@@ -14008,7 +10853,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>575</v>
+        <v>184</v>
       </c>
       <c r="C169" s="0" t="n">
         <v>13</v>
@@ -14052,7 +10897,7 @@
         <v>168</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>576</v>
+        <v>185</v>
       </c>
       <c r="C170" s="0" t="n">
         <v>0</v>
@@ -14085,7 +10930,7 @@
         <v>1</v>
       </c>
       <c r="M170" s="0" t="s">
-        <v>418</v>
+        <v>27</v>
       </c>
       <c r="N170" s="0" t="n">
         <v>1</v>
@@ -14096,7 +10941,7 @@
         <v>169</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>577</v>
+        <v>186</v>
       </c>
       <c r="C171" s="0" t="n">
         <v>7</v>
@@ -14140,7 +10985,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>578</v>
+        <v>187</v>
       </c>
       <c r="C172" s="0" t="n">
         <v>0</v>
@@ -14184,7 +11029,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>579</v>
+        <v>188</v>
       </c>
       <c r="C173" s="0" t="n">
         <v>0</v>
@@ -14228,7 +11073,7 @@
         <v>172</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>580</v>
+        <v>189</v>
       </c>
       <c r="C174" s="0" t="n">
         <v>15</v>
@@ -14272,7 +11117,7 @@
         <v>173</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>581</v>
+        <v>190</v>
       </c>
       <c r="C175" s="0" t="n">
         <v>29</v>
@@ -14316,7 +11161,7 @@
         <v>174</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>582</v>
+        <v>191</v>
       </c>
       <c r="C176" s="0" t="n">
         <v>0</v>
@@ -14349,7 +11194,7 @@
         <v>1</v>
       </c>
       <c r="M176" s="0" t="s">
-        <v>418</v>
+        <v>27</v>
       </c>
       <c r="N176" s="0" t="n">
         <v>1</v>
@@ -14360,7 +11205,7 @@
         <v>175</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>583</v>
+        <v>192</v>
       </c>
       <c r="C177" s="0" t="n">
         <v>8</v>
@@ -14404,7 +11249,7 @@
         <v>176</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>584</v>
+        <v>193</v>
       </c>
       <c r="C178" s="0" t="n">
         <v>23</v>
@@ -14437,7 +11282,7 @@
         <v>0.41025641025641</v>
       </c>
       <c r="M178" s="0" t="s">
-        <v>418</v>
+        <v>27</v>
       </c>
       <c r="N178" s="0" t="n">
         <v>0.27</v>

--- a/Project 4 Apache Common Configuration/Correlation Analysis/Correlation12&3.xlsx
+++ b/Project 4 Apache Common Configuration/Correlation Analysis/Correlation12&3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="195">
   <si>
     <t xml:space="preserve">CLASS</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t xml:space="preserve">Pearson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spearman</t>
   </si>
   <si>
     <t xml:space="preserve">AbsoluteNameLocationStrategy</t>
@@ -608,8 +611,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -705,7 +709,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -716,6 +720,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -790,7 +798,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -830,10 +838,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0694019554915722"/>
-          <c:y val="0.106330365974283"/>
-          <c:w val="0.907504048947274"/>
-          <c:h val="0.800774810418727"/>
+          <c:x val="0.0694261411285492"/>
+          <c:y val="0.106356665842196"/>
+          <c:w val="0.907331975560081"/>
+          <c:h val="0.800478192761151"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1977,11 +1985,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="63974037"/>
-        <c:axId val="41464262"/>
+        <c:axId val="16851304"/>
+        <c:axId val="91555567"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="63974037"/>
+        <c:axId val="16851304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2038,18 +2046,27 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41464262"/>
+        <c:crossAx val="91555567"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="41464262"/>
+        <c:axId val="91555567"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -2100,7 +2117,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63974037"/>
+        <c:crossAx val="16851304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2127,7 +2144,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2167,10 +2184,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0694019554915722"/>
-          <c:y val="0.106330365974283"/>
-          <c:w val="0.907504048947274"/>
-          <c:h val="0.800774810418727"/>
+          <c:x val="0.0694261411285492"/>
+          <c:y val="0.106356665842196"/>
+          <c:w val="0.907331975560081"/>
+          <c:h val="0.800478192761151"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3197,11 +3214,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="42065643"/>
-        <c:axId val="15705415"/>
+        <c:axId val="85664318"/>
+        <c:axId val="27154425"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="42065643"/>
+        <c:axId val="85664318"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3258,18 +3275,27 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15705415"/>
+        <c:crossAx val="27154425"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="15705415"/>
+        <c:axId val="27154425"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -3320,7 +3346,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42065643"/>
+        <c:crossAx val="85664318"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3354,13 +3380,13 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>487800</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>154080</xdr:rowOff>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>698400</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:colOff>697320</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>139680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3368,8 +3394,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="17268120" y="1416960"/>
-        <a:ext cx="6001200" cy="4367160"/>
+        <a:off x="17271360" y="1270080"/>
+        <a:ext cx="6009480" cy="4366080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3384,13 +3410,13 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>547920</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>69480</xdr:rowOff>
+      <xdr:rowOff>55800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>758520</xdr:colOff>
+      <xdr:colOff>757440</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>47520</xdr:rowOff>
+      <xdr:rowOff>32760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3398,8 +3424,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="17328240" y="6046560"/>
-        <a:ext cx="6001200" cy="4367160"/>
+        <a:off x="17331480" y="6039720"/>
+        <a:ext cx="6009480" cy="4366080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3417,13 +3443,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P178"/>
+  <dimension ref="A1:W178"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K9" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y12" activeCellId="0" sqref="Y12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.33"/>
@@ -3485,13 +3511,16 @@
       <c r="P1" s="0" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q1" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -3530,19 +3559,35 @@
         <v>1</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P2" s="0" t="n">
         <f aca="false">PEARSON(L2:L178,N2:N178)</f>
         <v>0.822101141237296</v>
       </c>
+      <c r="Q2" s="0" t="n">
+        <f aca="false">PEARSON(U2:U178,V2:V178)</f>
+        <v>0.842024938947015</v>
+      </c>
+      <c r="U2" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L2,L2:L178,1)</f>
+        <v>128.5</v>
+      </c>
+      <c r="V2" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N2,N2:N178,1)</f>
+        <v>135.5</v>
+      </c>
+      <c r="W2" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M2,M2:M178,1)</f>
+        <v>106</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>11</v>
@@ -3581,19 +3626,35 @@
         <v>0.96</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P3" s="0" t="n">
         <f aca="false">PEARSON(M2:M178,N2:N178)</f>
         <v>0.753624103674882</v>
       </c>
+      <c r="Q3" s="3" t="n">
+        <f aca="false">PEARSON(W2:W177,V2:V177)</f>
+        <v>0.847644497542554</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L3,L3:L179,1)</f>
+        <v>62</v>
+      </c>
+      <c r="V3" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N3,N3:N179,1)</f>
+        <v>83.5</v>
+      </c>
+      <c r="W3" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M3,M3:M179,1)</f>
+        <v>35</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>2</v>
@@ -3630,6 +3691,18 @@
       </c>
       <c r="N4" s="0" t="n">
         <v>0.97</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L4,L4:L180,1)</f>
+        <v>72</v>
+      </c>
+      <c r="V4" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N4,N4:N180,1)</f>
+        <v>88</v>
+      </c>
+      <c r="W4" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M4,M4:M180,1)</f>
+        <v>70</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3637,7 +3710,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -3674,6 +3747,18 @@
       </c>
       <c r="N5" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L5,L5:L181,1)</f>
+        <v>126</v>
+      </c>
+      <c r="V5" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N5,N5:N181,1)</f>
+        <v>133</v>
+      </c>
+      <c r="W5" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M5,M5:M181,1)</f>
+        <v>103.5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3681,7 +3766,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -3718,6 +3803,18 @@
       </c>
       <c r="N6" s="0" t="n">
         <v>0.96</v>
+      </c>
+      <c r="U6" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L6,L6:L182,1)</f>
+        <v>60</v>
+      </c>
+      <c r="V6" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N6,N6:N182,1)</f>
+        <v>83</v>
+      </c>
+      <c r="W6" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M6,M6:M182,1)</f>
+        <v>60.5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3725,7 +3822,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>3</v>
@@ -3762,6 +3859,18 @@
       </c>
       <c r="N7" s="0" t="n">
         <v>0.81</v>
+      </c>
+      <c r="U7" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L7,L7:L183,1)</f>
+        <v>48</v>
+      </c>
+      <c r="V7" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N7,N7:N183,1)</f>
+        <v>35</v>
+      </c>
+      <c r="W7" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M7,M7:M183,1)</f>
+        <v>40.5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3769,7 +3878,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>9</v>
@@ -3806,6 +3915,18 @@
       </c>
       <c r="N8" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U8" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L8,L8:L184,1)</f>
+        <v>3</v>
+      </c>
+      <c r="V8" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N8,N8:N184,1)</f>
+        <v>130.5</v>
+      </c>
+      <c r="W8" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M8,M8:M184,1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3813,7 +3934,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -3850,6 +3971,18 @@
       </c>
       <c r="N9" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U9" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L9,L9:L185,1)</f>
+        <v>122.5</v>
+      </c>
+      <c r="V9" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N9,N9:N185,1)</f>
+        <v>130</v>
+      </c>
+      <c r="W9" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M9,M9:M185,1)</f>
+        <v>100</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3857,7 +3990,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>2</v>
@@ -3894,6 +4027,18 @@
       </c>
       <c r="N10" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U10" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L10,L10:L186,1)</f>
+        <v>49.5</v>
+      </c>
+      <c r="V10" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N10,N10:N186,1)</f>
+        <v>129.5</v>
+      </c>
+      <c r="W10" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M10,M10:M186,1)</f>
+        <v>99.5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3901,7 +4046,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>2</v>
@@ -3938,6 +4083,18 @@
       </c>
       <c r="N11" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U11" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L11,L11:L187,1)</f>
+        <v>57</v>
+      </c>
+      <c r="V11" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N11,N11:N187,1)</f>
+        <v>129</v>
+      </c>
+      <c r="W11" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M11,M11:M187,1)</f>
+        <v>99</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3945,7 +4102,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -3978,10 +4135,18 @@
         <v>1</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N12" s="0" t="n">
         <v>0.9</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L12,L12:L188,1)</f>
+        <v>120</v>
+      </c>
+      <c r="V12" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N12,N12:N188,1)</f>
+        <v>59</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3989,7 +4154,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -4026,6 +4191,18 @@
       </c>
       <c r="N13" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U13" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L13,L13:L189,1)</f>
+        <v>119.5</v>
+      </c>
+      <c r="V13" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N13,N13:N189,1)</f>
+        <v>127.5</v>
+      </c>
+      <c r="W13" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M13,M13:M189,1)</f>
+        <v>98.5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4033,7 +4210,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1</v>
@@ -4070,6 +4247,18 @@
       </c>
       <c r="N14" s="0" t="n">
         <v>0.93</v>
+      </c>
+      <c r="U14" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L14,L14:L190,1)</f>
+        <v>72</v>
+      </c>
+      <c r="V14" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N14,N14:N190,1)</f>
+        <v>66</v>
+      </c>
+      <c r="W14" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M14,M14:M190,1)</f>
+        <v>62</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4077,7 +4266,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -4114,6 +4303,18 @@
       </c>
       <c r="N15" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U15" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L15,L15:L191,1)</f>
+        <v>118</v>
+      </c>
+      <c r="V15" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N15,N15:N191,1)</f>
+        <v>126</v>
+      </c>
+      <c r="W15" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M15,M15:M191,1)</f>
+        <v>97</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4121,7 +4322,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -4158,6 +4359,18 @@
       </c>
       <c r="N16" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U16" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L16,L16:L192,1)</f>
+        <v>117.5</v>
+      </c>
+      <c r="V16" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N16,N16:N192,1)</f>
+        <v>125.5</v>
+      </c>
+      <c r="W16" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M16,M16:M192,1)</f>
+        <v>96.5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4165,7 +4378,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>2</v>
@@ -4202,6 +4415,18 @@
       </c>
       <c r="N17" s="0" t="n">
         <v>0.96</v>
+      </c>
+      <c r="U17" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L17,L17:L193,1)</f>
+        <v>63</v>
+      </c>
+      <c r="V17" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N17,N17:N193,1)</f>
+        <v>79.5</v>
+      </c>
+      <c r="W17" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M17,M17:M193,1)</f>
+        <v>96</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4209,7 +4434,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1</v>
@@ -4246,6 +4471,18 @@
       </c>
       <c r="N18" s="0" t="n">
         <v>0.93</v>
+      </c>
+      <c r="U18" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L18,L18:L194,1)</f>
+        <v>70</v>
+      </c>
+      <c r="V18" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N18,N18:N194,1)</f>
+        <v>65.5</v>
+      </c>
+      <c r="W18" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M18,M18:M194,1)</f>
+        <v>63.5</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4253,7 +4490,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>24</v>
@@ -4290,6 +4527,18 @@
       </c>
       <c r="N19" s="0" t="n">
         <v>0.9</v>
+      </c>
+      <c r="U19" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L19,L19:L195,1)</f>
+        <v>26</v>
+      </c>
+      <c r="V19" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N19,N19:N195,1)</f>
+        <v>58.5</v>
+      </c>
+      <c r="W19" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M19,M19:M195,1)</f>
+        <v>20</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4297,7 +4546,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -4334,6 +4583,18 @@
       </c>
       <c r="N20" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U20" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L20,L20:L196,1)</f>
+        <v>114</v>
+      </c>
+      <c r="V20" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N20,N20:N196,1)</f>
+        <v>122</v>
+      </c>
+      <c r="W20" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M20,M20:M196,1)</f>
+        <v>93.5</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4341,7 +4602,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>7</v>
@@ -4378,6 +4639,18 @@
       </c>
       <c r="N21" s="0" t="n">
         <v>0.43</v>
+      </c>
+      <c r="U21" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L21,L21:L197,1)</f>
+        <v>31</v>
+      </c>
+      <c r="V21" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N21,N21:N197,1)</f>
+        <v>17</v>
+      </c>
+      <c r="W21" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M21,M21:M197,1)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4385,7 +4658,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>0</v>
@@ -4422,6 +4695,18 @@
       </c>
       <c r="N22" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U22" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L22,L22:L198,1)</f>
+        <v>112.5</v>
+      </c>
+      <c r="V22" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N22,N22:N198,1)</f>
+        <v>120.5</v>
+      </c>
+      <c r="W22" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M22,M22:M198,1)</f>
+        <v>92</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4429,7 +4714,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>0</v>
@@ -4466,6 +4751,18 @@
       </c>
       <c r="N23" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U23" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L23,L23:L199,1)</f>
+        <v>112</v>
+      </c>
+      <c r="V23" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N23,N23:N199,1)</f>
+        <v>120</v>
+      </c>
+      <c r="W23" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M23,M23:M199,1)</f>
+        <v>91.5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4473,7 +4770,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1</v>
@@ -4510,6 +4807,18 @@
       </c>
       <c r="N24" s="0" t="n">
         <v>0.97</v>
+      </c>
+      <c r="U24" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L24,L24:L200,1)</f>
+        <v>63</v>
+      </c>
+      <c r="V24" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N24,N24:N200,1)</f>
+        <v>79.5</v>
+      </c>
+      <c r="W24" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M24,M24:M200,1)</f>
+        <v>91</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4517,7 +4826,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>0</v>
@@ -4554,6 +4863,18 @@
       </c>
       <c r="N25" s="0" t="n">
         <v>0.95</v>
+      </c>
+      <c r="U25" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L25,L25:L201,1)</f>
+        <v>110.5</v>
+      </c>
+      <c r="V25" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N25,N25:N201,1)</f>
+        <v>72</v>
+      </c>
+      <c r="W25" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M25,M25:M201,1)</f>
+        <v>57</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4561,7 +4882,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>4</v>
@@ -4598,6 +4919,18 @@
       </c>
       <c r="N26" s="0" t="n">
         <v>0.9</v>
+      </c>
+      <c r="U26" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L26,L26:L202,1)</f>
+        <v>62</v>
+      </c>
+      <c r="V26" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N26,N26:N202,1)</f>
+        <v>57</v>
+      </c>
+      <c r="W26" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M26,M26:M202,1)</f>
+        <v>30</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4605,7 +4938,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>0</v>
@@ -4642,6 +4975,18 @@
       </c>
       <c r="N27" s="0" t="n">
         <v>0.8</v>
+      </c>
+      <c r="U27" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L27,L27:L203,1)</f>
+        <v>109</v>
+      </c>
+      <c r="V27" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N27,N27:N203,1)</f>
+        <v>31.5</v>
+      </c>
+      <c r="W27" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M27,M27:M203,1)</f>
+        <v>88.5</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4649,7 +4994,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>0</v>
@@ -4686,6 +5031,18 @@
       </c>
       <c r="N28" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U28" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L28,L28:L204,1)</f>
+        <v>108.5</v>
+      </c>
+      <c r="V28" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N28,N28:N204,1)</f>
+        <v>115.5</v>
+      </c>
+      <c r="W28" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M28,M28:M204,1)</f>
+        <v>88</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4693,7 +5050,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>0</v>
@@ -4730,6 +5087,18 @@
       </c>
       <c r="N29" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U29" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L29,L29:L205,1)</f>
+        <v>108</v>
+      </c>
+      <c r="V29" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N29,N29:N205,1)</f>
+        <v>115</v>
+      </c>
+      <c r="W29" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M29,M29:M205,1)</f>
+        <v>87.5</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4737,7 +5106,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>7</v>
@@ -4774,6 +5143,18 @@
       </c>
       <c r="N30" s="0" t="n">
         <v>0.86</v>
+      </c>
+      <c r="U30" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L30,L30:L206,1)</f>
+        <v>54</v>
+      </c>
+      <c r="V30" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N30,N30:N206,1)</f>
+        <v>41</v>
+      </c>
+      <c r="W30" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M30,M30:M206,1)</f>
+        <v>40</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4781,7 +5162,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>1</v>
@@ -4818,6 +5199,18 @@
       </c>
       <c r="N31" s="0" t="n">
         <v>0.93</v>
+      </c>
+      <c r="U31" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L31,L31:L207,1)</f>
+        <v>52.5</v>
+      </c>
+      <c r="V31" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N31,N31:N207,1)</f>
+        <v>60</v>
+      </c>
+      <c r="W31" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M31,M31:M207,1)</f>
+        <v>15</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4825,7 +5218,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>0</v>
@@ -4858,10 +5251,18 @@
         <v>1</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N32" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U32" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L32,L32:L208,1)</f>
+        <v>105.5</v>
+      </c>
+      <c r="V32" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N32,N32:N208,1)</f>
+        <v>112.5</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4869,7 +5270,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>0</v>
@@ -4906,6 +5307,18 @@
       </c>
       <c r="N33" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U33" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L33,L33:L209,1)</f>
+        <v>105</v>
+      </c>
+      <c r="V33" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N33,N33:N209,1)</f>
+        <v>112</v>
+      </c>
+      <c r="W33" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M33,M33:M209,1)</f>
+        <v>85</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4913,7 +5326,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>0</v>
@@ -4950,6 +5363,18 @@
       </c>
       <c r="N34" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U34" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L34,L34:L210,1)</f>
+        <v>104.5</v>
+      </c>
+      <c r="V34" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N34,N34:N210,1)</f>
+        <v>111.5</v>
+      </c>
+      <c r="W34" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M34,M34:M210,1)</f>
+        <v>84.5</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4957,7 +5382,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>2</v>
@@ -4994,6 +5419,18 @@
       </c>
       <c r="N35" s="0" t="n">
         <v>0.88</v>
+      </c>
+      <c r="U35" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L35,L35:L211,1)</f>
+        <v>38.5</v>
+      </c>
+      <c r="V35" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N35,N35:N211,1)</f>
+        <v>46.5</v>
+      </c>
+      <c r="W35" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M35,M35:M211,1)</f>
+        <v>84</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5001,7 +5438,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>7</v>
@@ -5038,6 +5475,18 @@
       </c>
       <c r="N36" s="0" t="n">
         <v>0.89</v>
+      </c>
+      <c r="U36" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L36,L36:L212,1)</f>
+        <v>35</v>
+      </c>
+      <c r="V36" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N36,N36:N212,1)</f>
+        <v>50</v>
+      </c>
+      <c r="W36" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M36,M36:M212,1)</f>
+        <v>19</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5045,7 +5494,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>5</v>
@@ -5082,6 +5531,19 @@
       </c>
       <c r="N37" s="0" t="n">
         <v>0.81</v>
+      </c>
+      <c r="R37" s="3"/>
+      <c r="U37" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L37,L37:L213,1)</f>
+        <v>33</v>
+      </c>
+      <c r="V37" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N37,N37:N213,1)</f>
+        <v>32.5</v>
+      </c>
+      <c r="W37" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M37,M37:M213,1)</f>
+        <v>28</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5089,7 +5551,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>0</v>
@@ -5122,10 +5584,18 @@
         <v>1</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N38" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U38" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L38,L38:L214,1)</f>
+        <v>101</v>
+      </c>
+      <c r="V38" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N38,N38:N214,1)</f>
+        <v>108</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5133,7 +5603,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>0</v>
@@ -5166,10 +5636,18 @@
         <v>1</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N39" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U39" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L39,L39:L215,1)</f>
+        <v>100.5</v>
+      </c>
+      <c r="V39" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N39,N39:N215,1)</f>
+        <v>107.5</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5177,7 +5655,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>0</v>
@@ -5214,6 +5692,18 @@
       </c>
       <c r="N40" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U40" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L40,L40:L216,1)</f>
+        <v>100</v>
+      </c>
+      <c r="V40" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N40,N40:N216,1)</f>
+        <v>107</v>
+      </c>
+      <c r="W40" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M40,M40:M216,1)</f>
+        <v>81.5</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5221,7 +5711,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>0</v>
@@ -5258,6 +5748,18 @@
       </c>
       <c r="N41" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U41" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L41,L41:L217,1)</f>
+        <v>99.5</v>
+      </c>
+      <c r="V41" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N41,N41:N217,1)</f>
+        <v>106.5</v>
+      </c>
+      <c r="W41" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M41,M41:M217,1)</f>
+        <v>81</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5265,7 +5767,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>0</v>
@@ -5302,6 +5804,18 @@
       </c>
       <c r="N42" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U42" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L42,L42:L218,1)</f>
+        <v>99</v>
+      </c>
+      <c r="V42" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N42,N42:N218,1)</f>
+        <v>106</v>
+      </c>
+      <c r="W42" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M42,M42:M218,1)</f>
+        <v>80.5</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5309,7 +5823,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>0</v>
@@ -5342,10 +5856,18 @@
         <v>1</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N43" s="0" t="n">
         <v>0.81</v>
+      </c>
+      <c r="U43" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L43,L43:L219,1)</f>
+        <v>98.5</v>
+      </c>
+      <c r="V43" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N43,N43:N219,1)</f>
+        <v>32</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5353,7 +5875,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>0</v>
@@ -5390,6 +5912,18 @@
       </c>
       <c r="N44" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U44" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L44,L44:L220,1)</f>
+        <v>98</v>
+      </c>
+      <c r="V44" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N44,N44:N220,1)</f>
+        <v>104.5</v>
+      </c>
+      <c r="W44" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M44,M44:M220,1)</f>
+        <v>80</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5397,7 +5931,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>0</v>
@@ -5434,6 +5968,18 @@
       </c>
       <c r="N45" s="0" t="n">
         <v>0.97</v>
+      </c>
+      <c r="U45" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L45,L45:L221,1)</f>
+        <v>97.5</v>
+      </c>
+      <c r="V45" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N45,N45:N221,1)</f>
+        <v>70</v>
+      </c>
+      <c r="W45" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M45,M45:M221,1)</f>
+        <v>29.5</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5441,7 +5987,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>0</v>
@@ -5478,6 +6024,18 @@
       </c>
       <c r="N46" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U46" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L46,L46:L222,1)</f>
+        <v>97</v>
+      </c>
+      <c r="V46" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N46,N46:N222,1)</f>
+        <v>103</v>
+      </c>
+      <c r="W46" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M46,M46:M222,1)</f>
+        <v>78.5</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5485,7 +6043,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>2</v>
@@ -5522,6 +6080,18 @@
       </c>
       <c r="N47" s="0" t="n">
         <v>0.83</v>
+      </c>
+      <c r="U47" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L47,L47:L223,1)</f>
+        <v>44</v>
+      </c>
+      <c r="V47" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N47,N47:N223,1)</f>
+        <v>34</v>
+      </c>
+      <c r="W47" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M47,M47:M223,1)</f>
+        <v>34</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5529,7 +6099,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>5</v>
@@ -5566,6 +6136,18 @@
       </c>
       <c r="N48" s="0" t="n">
         <v>0.6</v>
+      </c>
+      <c r="U48" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L48,L48:L224,1)</f>
+        <v>15</v>
+      </c>
+      <c r="V48" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N48,N48:N224,1)</f>
+        <v>20</v>
+      </c>
+      <c r="W48" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M48,M48:M224,1)</f>
+        <v>8.5</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5573,7 +6155,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>1</v>
@@ -5606,10 +6188,18 @@
         <v>0.75</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N49" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U49" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L49,L49:L225,1)</f>
+        <v>20</v>
+      </c>
+      <c r="V49" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N49,N49:N225,1)</f>
+        <v>100.5</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5617,7 +6207,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>5</v>
@@ -5654,6 +6244,18 @@
       </c>
       <c r="N50" s="0" t="n">
         <v>0.75</v>
+      </c>
+      <c r="U50" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L50,L50:L226,1)</f>
+        <v>28</v>
+      </c>
+      <c r="V50" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N50,N50:N226,1)</f>
+        <v>28.5</v>
+      </c>
+      <c r="W50" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M50,M50:M226,1)</f>
+        <v>45</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5661,7 +6263,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>7</v>
@@ -5698,6 +6300,18 @@
       </c>
       <c r="N51" s="0" t="n">
         <v>0.33</v>
+      </c>
+      <c r="U51" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L51,L51:L227,1)</f>
+        <v>7</v>
+      </c>
+      <c r="V51" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N51,N51:N227,1)</f>
+        <v>13.5</v>
+      </c>
+      <c r="W51" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M51,M51:M227,1)</f>
+        <v>1.5</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5705,7 +6319,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>0</v>
@@ -5742,6 +6356,18 @@
       </c>
       <c r="N52" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U52" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L52,L52:L228,1)</f>
+        <v>91.5</v>
+      </c>
+      <c r="V52" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N52,N52:N228,1)</f>
+        <v>98</v>
+      </c>
+      <c r="W52" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M52,M52:M228,1)</f>
+        <v>74</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5749,7 +6375,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>11</v>
@@ -5786,6 +6412,18 @@
       </c>
       <c r="N53" s="0" t="n">
         <v>0.89</v>
+      </c>
+      <c r="U53" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L53,L53:L229,1)</f>
+        <v>29</v>
+      </c>
+      <c r="V53" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N53,N53:N229,1)</f>
+        <v>43.5</v>
+      </c>
+      <c r="W53" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M53,M53:M229,1)</f>
+        <v>49</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5793,7 +6431,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>14</v>
@@ -5830,6 +6468,18 @@
       </c>
       <c r="N54" s="0" t="n">
         <v>0.7</v>
+      </c>
+      <c r="U54" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L54,L54:L230,1)</f>
+        <v>18</v>
+      </c>
+      <c r="V54" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N54,N54:N230,1)</f>
+        <v>22.5</v>
+      </c>
+      <c r="W54" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M54,M54:M230,1)</f>
+        <v>34.5</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5837,7 +6487,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>0</v>
@@ -5874,6 +6524,18 @@
       </c>
       <c r="N55" s="0" t="n">
         <v>0.85</v>
+      </c>
+      <c r="U55" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L55,L55:L231,1)</f>
+        <v>89</v>
+      </c>
+      <c r="V55" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N55,N55:N231,1)</f>
+        <v>32</v>
+      </c>
+      <c r="W55" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M55,M55:M231,1)</f>
+        <v>27</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5881,7 +6543,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>0</v>
@@ -5918,6 +6580,18 @@
       </c>
       <c r="N56" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U56" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L56,L56:L232,1)</f>
+        <v>88.5</v>
+      </c>
+      <c r="V56" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N56,N56:N232,1)</f>
+        <v>94.5</v>
+      </c>
+      <c r="W56" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M56,M56:M232,1)</f>
+        <v>33</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5925,7 +6599,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>0</v>
@@ -5962,6 +6636,18 @@
       </c>
       <c r="N57" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U57" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L57,L57:L233,1)</f>
+        <v>88</v>
+      </c>
+      <c r="V57" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N57,N57:N233,1)</f>
+        <v>94</v>
+      </c>
+      <c r="W57" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M57,M57:M233,1)</f>
+        <v>69.5</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5969,7 +6655,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>0</v>
@@ -6002,10 +6688,18 @@
         <v>1</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N58" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U58" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L58,L58:L234,1)</f>
+        <v>87.5</v>
+      </c>
+      <c r="V58" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N58,N58:N234,1)</f>
+        <v>93.5</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6013,7 +6707,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>12</v>
@@ -6050,6 +6744,18 @@
       </c>
       <c r="N59" s="0" t="n">
         <v>0.74</v>
+      </c>
+      <c r="U59" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L59,L59:L235,1)</f>
+        <v>23</v>
+      </c>
+      <c r="V59" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N59,N59:N235,1)</f>
+        <v>24.5</v>
+      </c>
+      <c r="W59" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M59,M59:M235,1)</f>
+        <v>69</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6057,7 +6763,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>3</v>
@@ -6094,6 +6800,18 @@
       </c>
       <c r="N60" s="0" t="n">
         <v>0.89</v>
+      </c>
+      <c r="U60" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L60,L60:L236,1)</f>
+        <v>46</v>
+      </c>
+      <c r="V60" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N60,N60:N236,1)</f>
+        <v>40</v>
+      </c>
+      <c r="W60" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M60,M60:M236,1)</f>
+        <v>22</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6101,7 +6819,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>0</v>
@@ -6138,6 +6856,18 @@
       </c>
       <c r="N61" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U61" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L61,L61:L237,1)</f>
+        <v>85</v>
+      </c>
+      <c r="V61" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N61,N61:N237,1)</f>
+        <v>91</v>
+      </c>
+      <c r="W61" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M61,M61:M237,1)</f>
+        <v>28</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6145,7 +6875,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>1</v>
@@ -6182,6 +6912,18 @@
       </c>
       <c r="N62" s="0" t="n">
         <v>0.87</v>
+      </c>
+      <c r="U62" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L62,L62:L238,1)</f>
+        <v>51</v>
+      </c>
+      <c r="V62" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N62,N62:N238,1)</f>
+        <v>33.5</v>
+      </c>
+      <c r="W62" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M62,M62:M238,1)</f>
+        <v>36</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6189,7 +6931,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>0</v>
@@ -6226,6 +6968,18 @@
       </c>
       <c r="N63" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U63" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L63,L63:L239,1)</f>
+        <v>83.5</v>
+      </c>
+      <c r="V63" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N63,N63:N239,1)</f>
+        <v>89.5</v>
+      </c>
+      <c r="W63" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M63,M63:M239,1)</f>
+        <v>65.5</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6233,7 +6987,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>12</v>
@@ -6270,6 +7024,18 @@
       </c>
       <c r="N64" s="0" t="n">
         <v>0.38</v>
+      </c>
+      <c r="U64" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L64,L64:L240,1)</f>
+        <v>8</v>
+      </c>
+      <c r="V64" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N64,N64:N240,1)</f>
+        <v>14</v>
+      </c>
+      <c r="W64" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M64,M64:M240,1)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6277,7 +7043,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>0</v>
@@ -6314,6 +7080,18 @@
       </c>
       <c r="N65" s="0" t="n">
         <v>0.98</v>
+      </c>
+      <c r="U65" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L65,L65:L241,1)</f>
+        <v>82</v>
+      </c>
+      <c r="V65" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N65,N65:N241,1)</f>
+        <v>60.5</v>
+      </c>
+      <c r="W65" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M65,M65:M241,1)</f>
+        <v>43</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6321,7 +7099,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>0</v>
@@ -6358,6 +7136,18 @@
       </c>
       <c r="N66" s="0" t="n">
         <v>0.95</v>
+      </c>
+      <c r="U66" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L66,L66:L242,1)</f>
+        <v>81.5</v>
+      </c>
+      <c r="V66" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N66,N66:N242,1)</f>
+        <v>52.5</v>
+      </c>
+      <c r="W66" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M66,M66:M242,1)</f>
+        <v>63</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6365,7 +7155,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>18</v>
@@ -6402,6 +7192,18 @@
       </c>
       <c r="N67" s="0" t="n">
         <v>0.63</v>
+      </c>
+      <c r="U67" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L67,L67:L243,1)</f>
+        <v>17</v>
+      </c>
+      <c r="V67" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N67,N67:N243,1)</f>
+        <v>18</v>
+      </c>
+      <c r="W67" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M67,M67:M243,1)</f>
+        <v>16</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6409,7 +7211,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>0</v>
@@ -6446,6 +7248,18 @@
       </c>
       <c r="N68" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U68" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L68,L68:L244,1)</f>
+        <v>80</v>
+      </c>
+      <c r="V68" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N68,N68:N244,1)</f>
+        <v>85</v>
+      </c>
+      <c r="W68" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M68,M68:M244,1)</f>
+        <v>61.5</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6453,7 +7267,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>0</v>
@@ -6486,10 +7300,18 @@
         <v>1</v>
       </c>
       <c r="M69" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N69" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U69" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L69,L69:L245,1)</f>
+        <v>79.5</v>
+      </c>
+      <c r="V69" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N69,N69:N245,1)</f>
+        <v>84.5</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6497,7 +7319,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>0</v>
@@ -6534,6 +7356,18 @@
       </c>
       <c r="N70" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U70" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L70,L70:L246,1)</f>
+        <v>79</v>
+      </c>
+      <c r="V70" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N70,N70:N246,1)</f>
+        <v>84</v>
+      </c>
+      <c r="W70" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M70,M70:M246,1)</f>
+        <v>61</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6541,7 +7375,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>0</v>
@@ -6578,6 +7412,18 @@
       </c>
       <c r="N71" s="0" t="n">
         <v>0.67</v>
+      </c>
+      <c r="U71" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L71,L71:L247,1)</f>
+        <v>78.5</v>
+      </c>
+      <c r="V71" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N71,N71:N247,1)</f>
+        <v>19</v>
+      </c>
+      <c r="W71" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M71,M71:M247,1)</f>
+        <v>60.5</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6585,7 +7431,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>0</v>
@@ -6618,10 +7464,18 @@
         <v>1</v>
       </c>
       <c r="M72" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N72" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U72" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L72,L72:L248,1)</f>
+        <v>78</v>
+      </c>
+      <c r="V72" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N72,N72:N248,1)</f>
+        <v>82.5</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6629,7 +7483,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>0</v>
@@ -6662,10 +7516,18 @@
         <v>1</v>
       </c>
       <c r="M73" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N73" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U73" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L73,L73:L249,1)</f>
+        <v>77.5</v>
+      </c>
+      <c r="V73" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N73,N73:N249,1)</f>
+        <v>82</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6673,7 +7535,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>83</v>
@@ -6710,6 +7572,18 @@
       </c>
       <c r="N74" s="0" t="n">
         <v>0.47</v>
+      </c>
+      <c r="U74" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L74,L74:L250,1)</f>
+        <v>12</v>
+      </c>
+      <c r="V74" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N74,N74:N250,1)</f>
+        <v>15</v>
+      </c>
+      <c r="W74" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M74,M74:M250,1)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6717,7 +7591,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>2</v>
@@ -6750,10 +7624,18 @@
         <v>0</v>
       </c>
       <c r="M75" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N75" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="U75" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L75,L75:L251,1)</f>
+        <v>2.5</v>
+      </c>
+      <c r="V75" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N75,N75:N251,1)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6761,7 +7643,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>0</v>
@@ -6798,6 +7680,18 @@
       </c>
       <c r="N76" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U76" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L76,L76:L252,1)</f>
+        <v>75</v>
+      </c>
+      <c r="V76" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N76,N76:N252,1)</f>
+        <v>79.5</v>
+      </c>
+      <c r="W76" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M76,M76:M252,1)</f>
+        <v>59</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6805,7 +7699,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>0</v>
@@ -6842,6 +7736,18 @@
       </c>
       <c r="N77" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U77" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L77,L77:L253,1)</f>
+        <v>74.5</v>
+      </c>
+      <c r="V77" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N77,N77:N253,1)</f>
+        <v>79</v>
+      </c>
+      <c r="W77" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M77,M77:M253,1)</f>
+        <v>37</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6849,7 +7755,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>0</v>
@@ -6882,10 +7788,18 @@
         <v>1</v>
       </c>
       <c r="M78" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N78" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U78" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L78,L78:L254,1)</f>
+        <v>74</v>
+      </c>
+      <c r="V78" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N78,N78:N254,1)</f>
+        <v>78.5</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6893,7 +7807,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>4</v>
@@ -6930,6 +7844,18 @@
       </c>
       <c r="N79" s="0" t="n">
         <v>0.71</v>
+      </c>
+      <c r="U79" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L79,L79:L255,1)</f>
+        <v>17</v>
+      </c>
+      <c r="V79" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N79,N79:N255,1)</f>
+        <v>18</v>
+      </c>
+      <c r="W79" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M79,M79:M255,1)</f>
+        <v>25.5</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6937,7 +7863,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>0</v>
@@ -6974,6 +7900,18 @@
       </c>
       <c r="N80" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U80" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L80,L80:L256,1)</f>
+        <v>72.5</v>
+      </c>
+      <c r="V80" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N80,N80:N256,1)</f>
+        <v>77</v>
+      </c>
+      <c r="W80" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M80,M80:M256,1)</f>
+        <v>56.5</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6981,7 +7919,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>17</v>
@@ -7018,6 +7956,18 @@
       </c>
       <c r="N81" s="0" t="n">
         <v>0.66</v>
+      </c>
+      <c r="U81" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L81,L81:L257,1)</f>
+        <v>13</v>
+      </c>
+      <c r="V81" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N81,N81:N257,1)</f>
+        <v>16</v>
+      </c>
+      <c r="W81" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M81,M81:M257,1)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7025,7 +7975,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C82" s="0" t="n">
         <v>0</v>
@@ -7062,6 +8012,18 @@
       </c>
       <c r="N82" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U82" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L82,L82:L258,1)</f>
+        <v>71</v>
+      </c>
+      <c r="V82" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N82,N82:N258,1)</f>
+        <v>75.5</v>
+      </c>
+      <c r="W82" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M82,M82:M258,1)</f>
+        <v>55</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7069,7 +8031,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>0</v>
@@ -7106,6 +8068,18 @@
       </c>
       <c r="N83" s="0" t="n">
         <v>0.92</v>
+      </c>
+      <c r="U83" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L83,L83:L259,1)</f>
+        <v>70.5</v>
+      </c>
+      <c r="V83" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N83,N83:N259,1)</f>
+        <v>36</v>
+      </c>
+      <c r="W83" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M83,M83:M259,1)</f>
+        <v>37</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7113,7 +8087,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>1</v>
@@ -7150,6 +8124,18 @@
       </c>
       <c r="N84" s="0" t="n">
         <v>0.93</v>
+      </c>
+      <c r="U84" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L84,L84:L260,1)</f>
+        <v>35</v>
+      </c>
+      <c r="V84" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N84,N84:N260,1)</f>
+        <v>37.5</v>
+      </c>
+      <c r="W84" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M84,M84:M260,1)</f>
+        <v>25.5</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7157,7 +8143,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>13</v>
@@ -7194,6 +8180,18 @@
       </c>
       <c r="N85" s="0" t="n">
         <v>0.96</v>
+      </c>
+      <c r="U85" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L85,L85:L261,1)</f>
+        <v>34</v>
+      </c>
+      <c r="V85" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N85,N85:N261,1)</f>
+        <v>47</v>
+      </c>
+      <c r="W85" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M85,M85:M261,1)</f>
+        <v>30</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7201,7 +8199,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>2</v>
@@ -7238,6 +8236,18 @@
       </c>
       <c r="N86" s="0" t="n">
         <v>0.88</v>
+      </c>
+      <c r="U86" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L86,L86:L262,1)</f>
+        <v>32</v>
+      </c>
+      <c r="V86" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N86,N86:N262,1)</f>
+        <v>29</v>
+      </c>
+      <c r="W86" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M86,M86:M262,1)</f>
+        <v>51.5</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7245,7 +8255,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C87" s="0" t="n">
         <v>0</v>
@@ -7282,6 +8292,18 @@
       </c>
       <c r="N87" s="0" t="n">
         <v>0.96</v>
+      </c>
+      <c r="U87" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L87,L87:L263,1)</f>
+        <v>67</v>
+      </c>
+      <c r="V87" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N87,N87:N263,1)</f>
+        <v>45.5</v>
+      </c>
+      <c r="W87" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M87,M87:M263,1)</f>
+        <v>51</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7289,7 +8311,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>2</v>
@@ -7326,6 +8348,18 @@
       </c>
       <c r="N88" s="0" t="n">
         <v>0.94</v>
+      </c>
+      <c r="U88" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L88,L88:L264,1)</f>
+        <v>38</v>
+      </c>
+      <c r="V88" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N88,N88:N264,1)</f>
+        <v>39</v>
+      </c>
+      <c r="W88" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M88,M88:M264,1)</f>
+        <v>27</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7333,7 +8367,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C89" s="0" t="n">
         <v>2</v>
@@ -7370,6 +8404,18 @@
       </c>
       <c r="N89" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U89" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L89,L89:L265,1)</f>
+        <v>14</v>
+      </c>
+      <c r="V89" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N89,N89:N265,1)</f>
+        <v>69</v>
+      </c>
+      <c r="W89" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M89,M89:M265,1)</f>
+        <v>49.5</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7377,7 +8423,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>0</v>
@@ -7410,10 +8456,18 @@
         <v>1</v>
       </c>
       <c r="M90" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N90" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U90" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L90,L90:L266,1)</f>
+        <v>64.5</v>
+      </c>
+      <c r="V90" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N90,N90:N266,1)</f>
+        <v>68.5</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7421,7 +8475,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C91" s="0" t="n">
         <v>2</v>
@@ -7458,6 +8512,18 @@
       </c>
       <c r="N91" s="0" t="n">
         <v>0.8</v>
+      </c>
+      <c r="U91" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L91,L91:L267,1)</f>
+        <v>22</v>
+      </c>
+      <c r="V91" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N91,N91:N267,1)</f>
+        <v>19</v>
+      </c>
+      <c r="W91" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M91,M91:M267,1)</f>
+        <v>11.5</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7465,7 +8531,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C92" s="0" t="n">
         <v>0</v>
@@ -7502,6 +8568,18 @@
       </c>
       <c r="N92" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U92" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L92,L92:L268,1)</f>
+        <v>63</v>
+      </c>
+      <c r="V92" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N92,N92:N268,1)</f>
+        <v>67</v>
+      </c>
+      <c r="W92" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M92,M92:M268,1)</f>
+        <v>48</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7509,7 +8587,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C93" s="0" t="n">
         <v>0</v>
@@ -7542,10 +8620,18 @@
         <v>1</v>
       </c>
       <c r="M93" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N93" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U93" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L93,L93:L269,1)</f>
+        <v>62.5</v>
+      </c>
+      <c r="V93" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N93,N93:N269,1)</f>
+        <v>66.5</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7553,7 +8639,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C94" s="0" t="n">
         <v>1</v>
@@ -7590,6 +8676,18 @@
       </c>
       <c r="N94" s="0" t="n">
         <v>0.89</v>
+      </c>
+      <c r="U94" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L94,L94:L270,1)</f>
+        <v>35</v>
+      </c>
+      <c r="V94" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N94,N94:N270,1)</f>
+        <v>29.5</v>
+      </c>
+      <c r="W94" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M94,M94:M270,1)</f>
+        <v>21</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7597,7 +8695,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C95" s="0" t="n">
         <v>0</v>
@@ -7630,10 +8728,18 @@
         <v>1</v>
       </c>
       <c r="M95" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N95" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U95" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L95,L95:L271,1)</f>
+        <v>61</v>
+      </c>
+      <c r="V95" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N95,N95:N271,1)</f>
+        <v>65</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7641,7 +8747,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C96" s="0" t="n">
         <v>0</v>
@@ -7678,6 +8784,18 @@
       </c>
       <c r="N96" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U96" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L96,L96:L272,1)</f>
+        <v>60.5</v>
+      </c>
+      <c r="V96" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N96,N96:N272,1)</f>
+        <v>64.5</v>
+      </c>
+      <c r="W96" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M96,M96:M272,1)</f>
+        <v>46.5</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7685,7 +8803,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C97" s="0" t="n">
         <v>0</v>
@@ -7722,6 +8840,18 @@
       </c>
       <c r="N97" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U97" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L97,L97:L273,1)</f>
+        <v>60</v>
+      </c>
+      <c r="V97" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N97,N97:N273,1)</f>
+        <v>64</v>
+      </c>
+      <c r="W97" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M97,M97:M273,1)</f>
+        <v>46</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7729,7 +8859,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C98" s="0" t="n">
         <v>0</v>
@@ -7766,6 +8896,18 @@
       </c>
       <c r="N98" s="0" t="n">
         <v>0.96</v>
+      </c>
+      <c r="U98" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L98,L98:L274,1)</f>
+        <v>59.5</v>
+      </c>
+      <c r="V98" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N98,N98:N274,1)</f>
+        <v>42</v>
+      </c>
+      <c r="W98" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M98,M98:M274,1)</f>
+        <v>45.5</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7773,7 +8915,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C99" s="0" t="n">
         <v>5</v>
@@ -7806,10 +8948,18 @@
         <v>0.583333333333333</v>
       </c>
       <c r="M99" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N99" s="0" t="n">
         <v>0.3</v>
+      </c>
+      <c r="U99" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L99,L99:L275,1)</f>
+        <v>9.5</v>
+      </c>
+      <c r="V99" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N99,N99:N275,1)</f>
+        <v>11</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7817,7 +8967,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C100" s="0" t="n">
         <v>2</v>
@@ -7850,10 +9000,18 @@
         <v>0</v>
       </c>
       <c r="M100" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N100" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="U100" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L100,L100:L276,1)</f>
+        <v>2</v>
+      </c>
+      <c r="V100" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N100,N100:N276,1)</f>
+        <v>2.5</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7861,7 +9019,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C101" s="0" t="n">
         <v>3</v>
@@ -7898,6 +9056,18 @@
       </c>
       <c r="N101" s="0" t="n">
         <v>0.82</v>
+      </c>
+      <c r="U101" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L101,L101:L277,1)</f>
+        <v>33</v>
+      </c>
+      <c r="V101" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N101,N101:N277,1)</f>
+        <v>17.5</v>
+      </c>
+      <c r="W101" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M101,M101:M277,1)</f>
+        <v>30</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7905,7 +9075,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C102" s="0" t="n">
         <v>0</v>
@@ -7942,6 +9112,18 @@
       </c>
       <c r="N102" s="0" t="n">
         <v>0.97</v>
+      </c>
+      <c r="U102" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L102,L102:L278,1)</f>
+        <v>56</v>
+      </c>
+      <c r="V102" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N102,N102:N278,1)</f>
+        <v>39.5</v>
+      </c>
+      <c r="W102" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M102,M102:M278,1)</f>
+        <v>26</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7949,7 +9131,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C103" s="0" t="n">
         <v>0</v>
@@ -7982,10 +9164,18 @@
         <v>1</v>
       </c>
       <c r="M103" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N103" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U103" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L103,L103:L279,1)</f>
+        <v>55.5</v>
+      </c>
+      <c r="V103" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N103,N103:N279,1)</f>
+        <v>58.5</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7993,7 +9183,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C104" s="0" t="n">
         <v>0</v>
@@ -8026,10 +9216,18 @@
         <v>1</v>
       </c>
       <c r="M104" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N104" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U104" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L104,L104:L280,1)</f>
+        <v>55</v>
+      </c>
+      <c r="V104" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N104,N104:N280,1)</f>
+        <v>58</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8037,7 +9235,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C105" s="0" t="n">
         <v>5</v>
@@ -8074,6 +9272,18 @@
       </c>
       <c r="N105" s="0" t="n">
         <v>0.85</v>
+      </c>
+      <c r="U105" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L105,L105:L281,1)</f>
+        <v>28</v>
+      </c>
+      <c r="V105" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N105,N105:N281,1)</f>
+        <v>19.5</v>
+      </c>
+      <c r="W105" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M105,M105:M281,1)</f>
+        <v>21</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8081,7 +9291,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C106" s="0" t="n">
         <v>8</v>
@@ -8114,10 +9324,18 @@
         <v>0.636363636363636</v>
       </c>
       <c r="M106" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N106" s="0" t="n">
         <v>0.4</v>
+      </c>
+      <c r="U106" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L106,L106:L282,1)</f>
+        <v>10</v>
+      </c>
+      <c r="V106" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N106,N106:N282,1)</f>
+        <v>11</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8125,7 +9343,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C107" s="0" t="n">
         <v>2</v>
@@ -8162,6 +9380,18 @@
       </c>
       <c r="N107" s="0" t="n">
         <v>0.87</v>
+      </c>
+      <c r="U107" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L107,L107:L283,1)</f>
+        <v>27</v>
+      </c>
+      <c r="V107" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N107,N107:N283,1)</f>
+        <v>20</v>
+      </c>
+      <c r="W107" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M107,M107:M283,1)</f>
+        <v>20</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8169,7 +9399,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C108" s="0" t="n">
         <v>0</v>
@@ -8202,10 +9432,18 @@
         <v>1</v>
       </c>
       <c r="M108" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N108" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U108" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L108,L108:L284,1)</f>
+        <v>51.5</v>
+      </c>
+      <c r="V108" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N108,N108:N284,1)</f>
+        <v>54.5</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8213,7 +9451,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C109" s="0" t="n">
         <v>0</v>
@@ -8246,10 +9484,18 @@
         <v>1</v>
       </c>
       <c r="M109" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N109" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U109" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L109,L109:L285,1)</f>
+        <v>51</v>
+      </c>
+      <c r="V109" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N109,N109:N285,1)</f>
+        <v>54</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8257,7 +9503,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C110" s="0" t="n">
         <v>3</v>
@@ -8294,6 +9540,18 @@
       </c>
       <c r="N110" s="0" t="n">
         <v>0.94</v>
+      </c>
+      <c r="U110" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L110,L110:L286,1)</f>
+        <v>19</v>
+      </c>
+      <c r="V110" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N110,N110:N286,1)</f>
+        <v>30.5</v>
+      </c>
+      <c r="W110" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M110,M110:M286,1)</f>
+        <v>41</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8301,7 +9559,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C111" s="0" t="n">
         <v>0</v>
@@ -8338,6 +9596,18 @@
       </c>
       <c r="N111" s="0" t="n">
         <v>0.94</v>
+      </c>
+      <c r="U111" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L111,L111:L287,1)</f>
+        <v>49.5</v>
+      </c>
+      <c r="V111" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N111,N111:N287,1)</f>
+        <v>30</v>
+      </c>
+      <c r="W111" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M111,M111:M287,1)</f>
+        <v>27</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8345,7 +9615,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C112" s="0" t="n">
         <v>0</v>
@@ -8382,6 +9652,18 @@
       </c>
       <c r="N112" s="0" t="n">
         <v>0.97</v>
+      </c>
+      <c r="U112" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L112,L112:L288,1)</f>
+        <v>49</v>
+      </c>
+      <c r="V112" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N112,N112:N288,1)</f>
+        <v>34</v>
+      </c>
+      <c r="W112" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M112,M112:M288,1)</f>
+        <v>22</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8389,7 +9671,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C113" s="0" t="n">
         <v>0</v>
@@ -8426,6 +9708,18 @@
       </c>
       <c r="N113" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U113" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L113,L113:L289,1)</f>
+        <v>48.5</v>
+      </c>
+      <c r="V113" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N113,N113:N289,1)</f>
+        <v>50.5</v>
+      </c>
+      <c r="W113" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M113,M113:M289,1)</f>
+        <v>38.5</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8433,7 +9727,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C114" s="0" t="n">
         <v>1</v>
@@ -8470,6 +9764,18 @@
       </c>
       <c r="N114" s="0" t="n">
         <v>0.98</v>
+      </c>
+      <c r="U114" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L114,L114:L290,1)</f>
+        <v>30</v>
+      </c>
+      <c r="V114" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N114,N114:N290,1)</f>
+        <v>34</v>
+      </c>
+      <c r="W114" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M114,M114:M290,1)</f>
+        <v>22</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8477,7 +9783,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C115" s="0" t="n">
         <v>0</v>
@@ -8514,6 +9820,18 @@
       </c>
       <c r="N115" s="0" t="n">
         <v>0.9</v>
+      </c>
+      <c r="U115" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L115,L115:L291,1)</f>
+        <v>47</v>
+      </c>
+      <c r="V115" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N115,N115:N291,1)</f>
+        <v>24.5</v>
+      </c>
+      <c r="W115" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M115,M115:M291,1)</f>
+        <v>9.5</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8521,7 +9839,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C116" s="0" t="n">
         <v>0</v>
@@ -8558,6 +9876,18 @@
       </c>
       <c r="N116" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U116" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L116,L116:L292,1)</f>
+        <v>46.5</v>
+      </c>
+      <c r="V116" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N116,N116:N292,1)</f>
+        <v>48</v>
+      </c>
+      <c r="W116" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M116,M116:M292,1)</f>
+        <v>36</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8565,7 +9895,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C117" s="0" t="n">
         <v>1</v>
@@ -8602,6 +9932,18 @@
       </c>
       <c r="N117" s="0" t="n">
         <v>0.75</v>
+      </c>
+      <c r="U117" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L117,L117:L293,1)</f>
+        <v>22.5</v>
+      </c>
+      <c r="V117" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N117,N117:N293,1)</f>
+        <v>15</v>
+      </c>
+      <c r="W117" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M117,M117:M293,1)</f>
+        <v>35.5</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8609,7 +9951,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C118" s="0" t="n">
         <v>0</v>
@@ -8646,6 +9988,18 @@
       </c>
       <c r="N118" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U118" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L118,L118:L294,1)</f>
+        <v>45</v>
+      </c>
+      <c r="V118" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N118,N118:N294,1)</f>
+        <v>46.5</v>
+      </c>
+      <c r="W118" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M118,M118:M294,1)</f>
+        <v>35</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8653,7 +10007,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C119" s="0" t="n">
         <v>0</v>
@@ -8686,10 +10040,18 @@
         <v>1</v>
       </c>
       <c r="M119" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N119" s="0" t="n">
         <v>0.5</v>
+      </c>
+      <c r="U119" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L119,L119:L295,1)</f>
+        <v>44.5</v>
+      </c>
+      <c r="V119" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N119,N119:N295,1)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8697,7 +10059,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C120" s="0" t="n">
         <v>0</v>
@@ -8730,10 +10092,18 @@
         <v>1</v>
       </c>
       <c r="M120" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N120" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U120" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L120,L120:L296,1)</f>
+        <v>44</v>
+      </c>
+      <c r="V120" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N120,N120:N296,1)</f>
+        <v>45</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8741,7 +10111,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C121" s="0" t="n">
         <v>0</v>
@@ -8774,10 +10144,18 @@
         <v>1</v>
       </c>
       <c r="M121" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N121" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U121" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L121,L121:L297,1)</f>
+        <v>43.5</v>
+      </c>
+      <c r="V121" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N121,N121:N297,1)</f>
+        <v>44.5</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8785,7 +10163,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C122" s="0" t="n">
         <v>0</v>
@@ -8822,6 +10200,18 @@
       </c>
       <c r="N122" s="0" t="n">
         <v>0.87</v>
+      </c>
+      <c r="U122" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L122,L122:L298,1)</f>
+        <v>43</v>
+      </c>
+      <c r="V122" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N122,N122:N298,1)</f>
+        <v>17.5</v>
+      </c>
+      <c r="W122" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M122,M122:M298,1)</f>
+        <v>34.5</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8829,7 +10219,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C123" s="0" t="n">
         <v>1</v>
@@ -8866,6 +10256,18 @@
       </c>
       <c r="N123" s="0" t="n">
         <v>0.95</v>
+      </c>
+      <c r="U123" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L123,L123:L299,1)</f>
+        <v>28</v>
+      </c>
+      <c r="V123" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N123,N123:N299,1)</f>
+        <v>28</v>
+      </c>
+      <c r="W123" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M123,M123:M299,1)</f>
+        <v>20</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8873,7 +10275,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C124" s="0" t="n">
         <v>0</v>
@@ -8910,6 +10312,18 @@
       </c>
       <c r="N124" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U124" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L124,L124:L300,1)</f>
+        <v>41.5</v>
+      </c>
+      <c r="V124" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N124,N124:N300,1)</f>
+        <v>42</v>
+      </c>
+      <c r="W124" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M124,M124:M300,1)</f>
+        <v>33</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8917,7 +10331,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C125" s="0" t="n">
         <v>1</v>
@@ -8954,6 +10368,18 @@
       </c>
       <c r="N125" s="0" t="n">
         <v>0.9</v>
+      </c>
+      <c r="U125" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L125,L125:L301,1)</f>
+        <v>20</v>
+      </c>
+      <c r="V125" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N125,N125:N301,1)</f>
+        <v>21</v>
+      </c>
+      <c r="W125" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M125,M125:M301,1)</f>
+        <v>32.5</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8961,7 +10387,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C126" s="0" t="n">
         <v>0</v>
@@ -8998,6 +10424,18 @@
       </c>
       <c r="N126" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U126" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L126,L126:L302,1)</f>
+        <v>40</v>
+      </c>
+      <c r="V126" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N126,N126:N302,1)</f>
+        <v>40.5</v>
+      </c>
+      <c r="W126" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M126,M126:M302,1)</f>
+        <v>20.5</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9005,7 +10443,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C127" s="0" t="n">
         <v>0</v>
@@ -9042,6 +10480,18 @@
       </c>
       <c r="N127" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U127" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L127,L127:L303,1)</f>
+        <v>39.5</v>
+      </c>
+      <c r="V127" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N127,N127:N303,1)</f>
+        <v>40</v>
+      </c>
+      <c r="W127" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M127,M127:M303,1)</f>
+        <v>31</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9049,7 +10499,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C128" s="0" t="n">
         <v>34</v>
@@ -9086,6 +10536,18 @@
       </c>
       <c r="N128" s="0" t="n">
         <v>0.19</v>
+      </c>
+      <c r="U128" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L128,L128:L304,1)</f>
+        <v>7</v>
+      </c>
+      <c r="V128" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N128,N128:N304,1)</f>
+        <v>7</v>
+      </c>
+      <c r="W128" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M128,M128:M304,1)</f>
+        <v>3.5</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9093,7 +10555,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C129" s="0" t="n">
         <v>73</v>
@@ -9130,6 +10592,18 @@
       </c>
       <c r="N129" s="0" t="n">
         <v>0.08</v>
+      </c>
+      <c r="U129" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L129,L129:L305,1)</f>
+        <v>3</v>
+      </c>
+      <c r="V129" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N129,N129:N305,1)</f>
+        <v>4</v>
+      </c>
+      <c r="W129" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M129,M129:M305,1)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9137,7 +10611,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C130" s="0" t="n">
         <v>0</v>
@@ -9174,6 +10648,18 @@
       </c>
       <c r="N130" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U130" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L130,L130:L306,1)</f>
+        <v>37</v>
+      </c>
+      <c r="V130" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N130,N130:N306,1)</f>
+        <v>37.5</v>
+      </c>
+      <c r="W130" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M130,M130:M306,1)</f>
+        <v>28.5</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9181,7 +10667,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C131" s="0" t="n">
         <v>2</v>
@@ -9218,6 +10704,18 @@
       </c>
       <c r="N131" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U131" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L131,L131:L307,1)</f>
+        <v>15</v>
+      </c>
+      <c r="V131" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N131,N131:N307,1)</f>
+        <v>37</v>
+      </c>
+      <c r="W131" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M131,M131:M307,1)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9225,7 +10723,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C132" s="0" t="n">
         <v>0</v>
@@ -9258,10 +10756,18 @@
         <v>1</v>
       </c>
       <c r="M132" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N132" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U132" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L132,L132:L308,1)</f>
+        <v>35.5</v>
+      </c>
+      <c r="V132" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N132,N132:N308,1)</f>
+        <v>36.5</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9269,7 +10775,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C133" s="0" t="n">
         <v>10</v>
@@ -9306,6 +10812,18 @@
       </c>
       <c r="N133" s="0" t="n">
         <v>0.94</v>
+      </c>
+      <c r="U133" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L133,L133:L309,1)</f>
+        <v>18</v>
+      </c>
+      <c r="V133" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N133,N133:N309,1)</f>
+        <v>22.5</v>
+      </c>
+      <c r="W133" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M133,M133:M309,1)</f>
+        <v>15</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9313,7 +10831,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C134" s="0" t="n">
         <v>5</v>
@@ -9350,6 +10868,18 @@
       </c>
       <c r="N134" s="0" t="n">
         <v>0.95</v>
+      </c>
+      <c r="U134" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L134,L134:L310,1)</f>
+        <v>21</v>
+      </c>
+      <c r="V134" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N134,N134:N310,1)</f>
+        <v>23.5</v>
+      </c>
+      <c r="W134" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M134,M134:M310,1)</f>
+        <v>17</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9357,7 +10887,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C135" s="0" t="n">
         <v>26</v>
@@ -9394,6 +10924,18 @@
       </c>
       <c r="N135" s="0" t="n">
         <v>0.92</v>
+      </c>
+      <c r="U135" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L135,L135:L311,1)</f>
+        <v>14</v>
+      </c>
+      <c r="V135" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N135,N135:N311,1)</f>
+        <v>19.5</v>
+      </c>
+      <c r="W135" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M135,M135:M311,1)</f>
+        <v>14</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9401,7 +10943,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C136" s="0" t="n">
         <v>24</v>
@@ -9438,6 +10980,18 @@
       </c>
       <c r="N136" s="0" t="n">
         <v>0.7</v>
+      </c>
+      <c r="U136" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L136,L136:L312,1)</f>
+        <v>10</v>
+      </c>
+      <c r="V136" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N136,N136:N312,1)</f>
+        <v>10</v>
+      </c>
+      <c r="W136" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M136,M136:M312,1)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9445,7 +10999,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C137" s="0" t="n">
         <v>102</v>
@@ -9482,6 +11036,18 @@
       </c>
       <c r="N137" s="0" t="n">
         <v>0.49</v>
+      </c>
+      <c r="U137" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L137,L137:L313,1)</f>
+        <v>8</v>
+      </c>
+      <c r="V137" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N137,N137:N313,1)</f>
+        <v>9</v>
+      </c>
+      <c r="W137" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M137,M137:M313,1)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9489,7 +11055,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C138" s="0" t="n">
         <v>153</v>
@@ -9526,6 +11092,18 @@
       </c>
       <c r="N138" s="0" t="n">
         <v>0.33</v>
+      </c>
+      <c r="U138" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L138,L138:L314,1)</f>
+        <v>7</v>
+      </c>
+      <c r="V138" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N138,N138:N314,1)</f>
+        <v>8</v>
+      </c>
+      <c r="W138" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M138,M138:M314,1)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9533,7 +11111,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C139" s="0" t="n">
         <v>0</v>
@@ -9566,10 +11144,18 @@
         <v>1</v>
       </c>
       <c r="M139" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N139" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U139" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L139,L139:L315,1)</f>
+        <v>29</v>
+      </c>
+      <c r="V139" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N139,N139:N315,1)</f>
+        <v>30</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9577,7 +11163,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C140" s="0" t="n">
         <v>0</v>
@@ -9614,6 +11200,18 @@
       </c>
       <c r="N140" s="0" t="n">
         <v>0.93</v>
+      </c>
+      <c r="U140" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L140,L140:L316,1)</f>
+        <v>28.5</v>
+      </c>
+      <c r="V140" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N140,N140:N316,1)</f>
+        <v>17</v>
+      </c>
+      <c r="W140" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M140,M140:M316,1)</f>
+        <v>21</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9621,7 +11219,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C141" s="0" t="n">
         <v>0</v>
@@ -9658,6 +11256,18 @@
       </c>
       <c r="N141" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U141" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L141,L141:L317,1)</f>
+        <v>28</v>
+      </c>
+      <c r="V141" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N141,N141:N317,1)</f>
+        <v>28.5</v>
+      </c>
+      <c r="W141" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M141,M141:M317,1)</f>
+        <v>20.5</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9665,7 +11275,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C142" s="0" t="n">
         <v>2</v>
@@ -9702,6 +11312,18 @@
       </c>
       <c r="N142" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U142" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L142,L142:L318,1)</f>
+        <v>15</v>
+      </c>
+      <c r="V142" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N142,N142:N318,1)</f>
+        <v>28</v>
+      </c>
+      <c r="W142" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M142,M142:M318,1)</f>
+        <v>7.5</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9709,7 +11331,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C143" s="0" t="n">
         <v>0</v>
@@ -9746,6 +11368,18 @@
       </c>
       <c r="N143" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U143" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L143,L143:L319,1)</f>
+        <v>26.5</v>
+      </c>
+      <c r="V143" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N143,N143:N319,1)</f>
+        <v>27.5</v>
+      </c>
+      <c r="W143" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M143,M143:M319,1)</f>
+        <v>19</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9753,7 +11387,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C144" s="0" t="n">
         <v>0</v>
@@ -9790,6 +11424,18 @@
       </c>
       <c r="N144" s="0" t="n">
         <v>0.92</v>
+      </c>
+      <c r="U144" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L144,L144:L320,1)</f>
+        <v>26</v>
+      </c>
+      <c r="V144" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N144,N144:N320,1)</f>
+        <v>16</v>
+      </c>
+      <c r="W144" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M144,M144:M320,1)</f>
+        <v>18.5</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9797,7 +11443,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C145" s="0" t="n">
         <v>0</v>
@@ -9834,6 +11480,18 @@
       </c>
       <c r="N145" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U145" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L145,L145:L321,1)</f>
+        <v>25.5</v>
+      </c>
+      <c r="V145" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N145,N145:N321,1)</f>
+        <v>26</v>
+      </c>
+      <c r="W145" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M145,M145:M321,1)</f>
+        <v>18</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9841,7 +11499,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C146" s="0" t="n">
         <v>0</v>
@@ -9874,10 +11532,18 @@
         <v>1</v>
       </c>
       <c r="M146" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N146" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U146" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L146,L146:L322,1)</f>
+        <v>25</v>
+      </c>
+      <c r="V146" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N146,N146:N322,1)</f>
+        <v>25.5</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9885,7 +11551,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C147" s="0" t="n">
         <v>0</v>
@@ -9922,6 +11588,18 @@
       </c>
       <c r="N147" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U147" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L147,L147:L323,1)</f>
+        <v>24.5</v>
+      </c>
+      <c r="V147" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N147,N147:N323,1)</f>
+        <v>25</v>
+      </c>
+      <c r="W147" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M147,M147:M323,1)</f>
+        <v>17.5</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9929,7 +11607,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C148" s="0" t="n">
         <v>0</v>
@@ -9962,10 +11640,18 @@
         <v>1</v>
       </c>
       <c r="M148" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N148" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U148" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L148,L148:L324,1)</f>
+        <v>24</v>
+      </c>
+      <c r="V148" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N148,N148:N324,1)</f>
+        <v>24.5</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9973,7 +11659,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C149" s="0" t="n">
         <v>0</v>
@@ -10006,10 +11692,18 @@
         <v>1</v>
       </c>
       <c r="M149" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N149" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U149" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L149,L149:L325,1)</f>
+        <v>23.5</v>
+      </c>
+      <c r="V149" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N149,N149:N325,1)</f>
+        <v>24</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10017,7 +11711,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C150" s="0" t="n">
         <v>0</v>
@@ -10050,10 +11744,18 @@
         <v>1</v>
       </c>
       <c r="M150" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N150" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U150" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L150,L150:L326,1)</f>
+        <v>23</v>
+      </c>
+      <c r="V150" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N150,N150:N326,1)</f>
+        <v>23.5</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10061,7 +11763,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C151" s="0" t="n">
         <v>0</v>
@@ -10094,10 +11796,18 @@
         <v>1</v>
       </c>
       <c r="M151" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N151" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U151" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L151,L151:L327,1)</f>
+        <v>22.5</v>
+      </c>
+      <c r="V151" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N151,N151:N327,1)</f>
+        <v>23</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10105,7 +11815,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C152" s="0" t="n">
         <v>1</v>
@@ -10142,6 +11852,18 @@
       </c>
       <c r="N152" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U152" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L152,L152:L328,1)</f>
+        <v>13.5</v>
+      </c>
+      <c r="V152" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N152,N152:N328,1)</f>
+        <v>22.5</v>
+      </c>
+      <c r="W152" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M152,M152:M328,1)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10149,7 +11871,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C153" s="0" t="n">
         <v>124</v>
@@ -10186,6 +11908,18 @@
       </c>
       <c r="N153" s="0" t="n">
         <v>0.17</v>
+      </c>
+      <c r="U153" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L153,L153:L329,1)</f>
+        <v>4</v>
+      </c>
+      <c r="V153" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N153,N153:N329,1)</f>
+        <v>4.5</v>
+      </c>
+      <c r="W153" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M153,M153:M329,1)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10193,7 +11927,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C154" s="0" t="n">
         <v>0</v>
@@ -10230,6 +11964,18 @@
       </c>
       <c r="N154" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U154" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L154,L154:L330,1)</f>
+        <v>20</v>
+      </c>
+      <c r="V154" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N154,N154:N330,1)</f>
+        <v>21</v>
+      </c>
+      <c r="W154" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M154,M154:M330,1)</f>
+        <v>15</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10237,7 +11983,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C155" s="0" t="n">
         <v>0</v>
@@ -10270,10 +12016,18 @@
         <v>1</v>
       </c>
       <c r="M155" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N155" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U155" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L155,L155:L331,1)</f>
+        <v>19.5</v>
+      </c>
+      <c r="V155" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N155,N155:N331,1)</f>
+        <v>20.5</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10281,7 +12035,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C156" s="0" t="n">
         <v>0</v>
@@ -10318,6 +12072,18 @@
       </c>
       <c r="N156" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U156" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L156,L156:L332,1)</f>
+        <v>19</v>
+      </c>
+      <c r="V156" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N156,N156:N332,1)</f>
+        <v>20</v>
+      </c>
+      <c r="W156" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M156,M156:M332,1)</f>
+        <v>14.5</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10325,7 +12091,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C157" s="0" t="n">
         <v>3</v>
@@ -10362,6 +12128,18 @@
       </c>
       <c r="N157" s="0" t="n">
         <v>0.95</v>
+      </c>
+      <c r="U157" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L157,L157:L333,1)</f>
+        <v>12</v>
+      </c>
+      <c r="V157" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N157,N157:N333,1)</f>
+        <v>16</v>
+      </c>
+      <c r="W157" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M157,M157:M333,1)</f>
+        <v>6.5</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10369,7 +12147,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C158" s="0" t="n">
         <v>2</v>
@@ -10406,6 +12184,18 @@
       </c>
       <c r="N158" s="0" t="n">
         <v>0.88</v>
+      </c>
+      <c r="U158" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L158,L158:L334,1)</f>
+        <v>10</v>
+      </c>
+      <c r="V158" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N158,N158:N334,1)</f>
+        <v>12.5</v>
+      </c>
+      <c r="W158" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M158,M158:M334,1)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10413,7 +12203,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C159" s="0" t="n">
         <v>2</v>
@@ -10446,10 +12236,18 @@
         <v>0</v>
       </c>
       <c r="M159" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N159" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="U159" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L159,L159:L335,1)</f>
+        <v>1.5</v>
+      </c>
+      <c r="V159" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N159,N159:N335,1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10457,7 +12255,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C160" s="0" t="n">
         <v>5</v>
@@ -10490,10 +12288,18 @@
         <v>0.583333333333333</v>
       </c>
       <c r="M160" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N160" s="0" t="n">
         <v>0.25</v>
+      </c>
+      <c r="U160" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L160,L160:L336,1)</f>
+        <v>4</v>
+      </c>
+      <c r="V160" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N160,N160:N336,1)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10501,7 +12307,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C161" s="0" t="n">
         <v>37</v>
@@ -10538,6 +12344,18 @@
       </c>
       <c r="N161" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="U161" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L161,L161:L337,1)</f>
+        <v>1</v>
+      </c>
+      <c r="V161" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N161,N161:N337,1)</f>
+        <v>1.5</v>
+      </c>
+      <c r="W161" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M161,M161:M337,1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10545,7 +12363,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C162" s="0" t="n">
         <v>0</v>
@@ -10578,10 +12396,18 @@
         <v>1</v>
       </c>
       <c r="M162" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N162" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U162" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L162,L162:L338,1)</f>
+        <v>13.5</v>
+      </c>
+      <c r="V162" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N162,N162:N338,1)</f>
+        <v>14.5</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10589,7 +12415,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C163" s="0" t="n">
         <v>0</v>
@@ -10626,6 +12452,18 @@
       </c>
       <c r="N163" s="0" t="n">
         <v>0.84</v>
+      </c>
+      <c r="U163" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L163,L163:L339,1)</f>
+        <v>13</v>
+      </c>
+      <c r="V163" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N163,N163:N339,1)</f>
+        <v>6</v>
+      </c>
+      <c r="W163" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M163,M163:M339,1)</f>
+        <v>11</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10633,7 +12471,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C164" s="0" t="n">
         <v>1</v>
@@ -10670,6 +12508,18 @@
       </c>
       <c r="N164" s="0" t="n">
         <v>0.94</v>
+      </c>
+      <c r="U164" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L164,L164:L340,1)</f>
+        <v>9</v>
+      </c>
+      <c r="V164" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N164,N164:N340,1)</f>
+        <v>10</v>
+      </c>
+      <c r="W164" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M164,M164:M340,1)</f>
+        <v>10.5</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10677,7 +12527,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C165" s="0" t="n">
         <v>0</v>
@@ -10714,6 +12564,18 @@
       </c>
       <c r="N165" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="U165" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L165,L165:L341,1)</f>
+        <v>11.5</v>
+      </c>
+      <c r="V165" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N165,N165:N341,1)</f>
+        <v>1</v>
+      </c>
+      <c r="W165" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M165,M165:M341,1)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10721,7 +12583,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C166" s="0" t="n">
         <v>0</v>
@@ -10758,6 +12620,18 @@
       </c>
       <c r="N166" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U166" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L166,L166:L342,1)</f>
+        <v>11</v>
+      </c>
+      <c r="V166" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N166,N166:N342,1)</f>
+        <v>11</v>
+      </c>
+      <c r="W166" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M166,M166:M342,1)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10765,7 +12639,7 @@
         <v>165</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C167" s="0" t="n">
         <v>4</v>
@@ -10802,6 +12676,18 @@
       </c>
       <c r="N167" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U167" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L167,L167:L343,1)</f>
+        <v>6</v>
+      </c>
+      <c r="V167" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N167,N167:N343,1)</f>
+        <v>10.5</v>
+      </c>
+      <c r="W167" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M167,M167:M343,1)</f>
+        <v>8.5</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10809,7 +12695,7 @@
         <v>166</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C168" s="0" t="n">
         <v>108</v>
@@ -10846,6 +12732,18 @@
       </c>
       <c r="N168" s="0" t="n">
         <v>0.17</v>
+      </c>
+      <c r="U168" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L168,L168:L344,1)</f>
+        <v>1</v>
+      </c>
+      <c r="V168" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N168,N168:N344,1)</f>
+        <v>1</v>
+      </c>
+      <c r="W168" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M168,M168:M344,1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10853,7 +12751,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C169" s="0" t="n">
         <v>13</v>
@@ -10890,6 +12788,18 @@
       </c>
       <c r="N169" s="0" t="n">
         <v>0.89</v>
+      </c>
+      <c r="U169" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L169,L169:L345,1)</f>
+        <v>4</v>
+      </c>
+      <c r="V169" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N169,N169:N345,1)</f>
+        <v>7</v>
+      </c>
+      <c r="W169" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M169,M169:M345,1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10897,7 +12807,7 @@
         <v>168</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C170" s="0" t="n">
         <v>0</v>
@@ -10930,10 +12840,18 @@
         <v>1</v>
       </c>
       <c r="M170" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N170" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U170" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L170,L170:L346,1)</f>
+        <v>7.5</v>
+      </c>
+      <c r="V170" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N170,N170:N346,1)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10941,7 +12859,7 @@
         <v>169</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C171" s="0" t="n">
         <v>7</v>
@@ -10978,6 +12896,18 @@
       </c>
       <c r="N171" s="0" t="n">
         <v>0.88</v>
+      </c>
+      <c r="U171" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L171,L171:L347,1)</f>
+        <v>5</v>
+      </c>
+      <c r="V171" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N171,N171:N347,1)</f>
+        <v>6</v>
+      </c>
+      <c r="W171" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M171,M171:M347,1)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10985,7 +12915,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C172" s="0" t="n">
         <v>0</v>
@@ -11022,6 +12952,18 @@
       </c>
       <c r="N172" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U172" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L172,L172:L348,1)</f>
+        <v>6</v>
+      </c>
+      <c r="V172" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N172,N172:N348,1)</f>
+        <v>6.5</v>
+      </c>
+      <c r="W172" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M172,M172:M348,1)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11029,7 +12971,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C173" s="0" t="n">
         <v>0</v>
@@ -11066,6 +13008,18 @@
       </c>
       <c r="N173" s="0" t="n">
         <v>0.85</v>
+      </c>
+      <c r="U173" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L173,L173:L349,1)</f>
+        <v>5.5</v>
+      </c>
+      <c r="V173" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N173,N173:N349,1)</f>
+        <v>4</v>
+      </c>
+      <c r="W173" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M173,M173:M349,1)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11073,7 +13027,7 @@
         <v>172</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C174" s="0" t="n">
         <v>15</v>
@@ -11110,6 +13064,18 @@
       </c>
       <c r="N174" s="0" t="n">
         <v>0.74</v>
+      </c>
+      <c r="U174" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L174,L174:L350,1)</f>
+        <v>3</v>
+      </c>
+      <c r="V174" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N174,N174:N350,1)</f>
+        <v>2</v>
+      </c>
+      <c r="W174" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M174,M174:M350,1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11117,7 +13083,7 @@
         <v>173</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C175" s="0" t="n">
         <v>29</v>
@@ -11154,6 +13120,18 @@
       </c>
       <c r="N175" s="0" t="n">
         <v>0.82</v>
+      </c>
+      <c r="U175" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L175,L175:L351,1)</f>
+        <v>2</v>
+      </c>
+      <c r="V175" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N175,N175:N351,1)</f>
+        <v>2</v>
+      </c>
+      <c r="W175" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M175,M175:M351,1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11161,7 +13139,7 @@
         <v>174</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C176" s="0" t="n">
         <v>0</v>
@@ -11194,10 +13172,18 @@
         <v>1</v>
       </c>
       <c r="M176" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N176" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U176" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L176,L176:L352,1)</f>
+        <v>3</v>
+      </c>
+      <c r="V176" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N176,N176:N352,1)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11205,7 +13191,7 @@
         <v>175</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C177" s="0" t="n">
         <v>8</v>
@@ -11242,6 +13228,18 @@
       </c>
       <c r="N177" s="0" t="n">
         <v>0.87</v>
+      </c>
+      <c r="U177" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L177,L177:L353,1)</f>
+        <v>2</v>
+      </c>
+      <c r="V177" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N177,N177:N353,1)</f>
+        <v>2</v>
+      </c>
+      <c r="W177" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(M177,M177:M353,1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11249,7 +13247,7 @@
         <v>176</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C178" s="0" t="n">
         <v>23</v>
@@ -11282,10 +13280,18 @@
         <v>0.41025641025641</v>
       </c>
       <c r="M178" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N178" s="0" t="n">
         <v>0.27</v>
+      </c>
+      <c r="U178" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(L178,L178:L354,1)</f>
+        <v>1</v>
+      </c>
+      <c r="V178" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(N178,N178:N354,1)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
